--- a/User Stories [TEMPLATE].xlsx
+++ b/User Stories [TEMPLATE].xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semester 6\SE\SPRINTS\Sprint2C5\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="510" yWindow="570" windowWidth="14055" windowHeight="6090"/>
   </bookViews>
@@ -10,12 +15,12 @@
     <sheet name="User Stories" sheetId="1" r:id="rId1"/>
     <sheet name="Analysis" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t xml:space="preserve"> EPIC</t>
   </si>
@@ -105,6 +110,21 @@
   </si>
   <si>
     <t>2 Med</t>
+  </si>
+  <si>
+    <t>as a User I want to be able to request for the available slots to the expert</t>
+  </si>
+  <si>
+    <t>as a User I want to be able to choose from the available slots</t>
+  </si>
+  <si>
+    <t>as a User I want to be able to receive the URL of the chat room</t>
+  </si>
+  <si>
+    <t>depends on the expert answered the question</t>
+  </si>
+  <si>
+    <t>MD</t>
   </si>
 </sst>
 </file>
@@ -231,7 +251,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -287,261 +307,17 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="69">
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF390C24"/>
-          <bgColor rgb="FF390C24"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF7A1C4A"/>
-          <bgColor rgb="FF7A1C4A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFAD507E"/>
-          <bgColor rgb="FFAD507E"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF434343"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCEA0B6"/>
-          <bgColor rgb="FFCEA0B6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF434343"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEDB8D2"/>
-          <bgColor rgb="FFEDB8D2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF434343"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF1E3E9"/>
-          <bgColor rgb="FFF1E3E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF390C24"/>
-          <bgColor rgb="FF390C24"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF541235"/>
-          <bgColor rgb="FF541235"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF7A1C4A"/>
-          <bgColor rgb="FF7A1C4A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9B4770"/>
-          <bgColor rgb="FF9B4770"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFAD507E"/>
-          <bgColor rgb="FFAD507E"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCA80A6"/>
-          <bgColor rgb="FFCA80A6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF434343"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCEA0B6"/>
-          <bgColor rgb="FFCEA0B6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF434343"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDCAAC6"/>
-          <bgColor rgb="FFDCAAC6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF434343"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEDB8D2"/>
-          <bgColor rgb="FFEDB8D2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF434343"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF3D9E4"/>
-          <bgColor rgb="FFF3D9E4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF434343"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF1E3E9"/>
-          <bgColor rgb="FFF1E3E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF434343"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF7E9EF"/>
-          <bgColor rgb="FFF7E9EF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCC0000"/>
-          <bgColor rgb="FFCC0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEAEFF8"/>
-          <bgColor rgb="FFEAEFF8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC9DAF8"/>
-          <bgColor rgb="FFC9DAF8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFA4C2F4"/>
-          <bgColor rgb="FFA4C2F4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6D9EEB"/>
-          <bgColor rgb="FF6D9EEB"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="46">
     <dxf>
       <font>
         <color rgb="FFFFFFFF"/>
@@ -1048,6 +824,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1095,7 +874,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1130,7 +909,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1344,9 +1123,9 @@
   </sheetPr>
   <dimension ref="A1:S996"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1737,19 +1516,27 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="12.75">
+    <row r="8" spans="1:19" ht="22.5">
       <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12"/>
+      <c r="B8" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
+      <c r="F8" s="24" t="s">
+        <v>33</v>
+      </c>
       <c r="G8" s="13"/>
       <c r="H8" s="14"/>
       <c r="I8" s="15"/>
-      <c r="J8" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="J8" s="16">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="K8" s="17" t="e">
         <f t="shared" ref="K8:L8" si="17">IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
@@ -1759,9 +1546,9 @@
         <f t="shared" si="17"/>
         <v>#REF!</v>
       </c>
-      <c r="M8" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="M8" s="16">
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="N8" s="16" t="e">
         <f t="shared" ref="N8:O8" si="18">IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
@@ -1780,24 +1567,30 @@
         <f t="shared" si="5"/>
         <v>#REF!</v>
       </c>
-      <c r="S8" s="20" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="S8" s="20">
+        <f t="shared" si="6"/>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="12.75">
       <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12"/>
+      <c r="B9" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="14"/>
       <c r="I9" s="15"/>
-      <c r="J9" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="J9" s="16">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="K9" s="17" t="e">
         <f t="shared" ref="K9:L9" si="19">IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
@@ -1807,9 +1600,9 @@
         <f t="shared" si="19"/>
         <v>#REF!</v>
       </c>
-      <c r="M9" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="M9" s="16">
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="N9" s="16" t="e">
         <f t="shared" ref="N9:O9" si="20">IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
@@ -1828,24 +1621,30 @@
         <f t="shared" si="5"/>
         <v>#REF!</v>
       </c>
-      <c r="S9" s="20" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="S9" s="20">
+        <f t="shared" si="6"/>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="12.75">
       <c r="A10" s="9"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12"/>
+      <c r="B10" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>34</v>
+      </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
       <c r="H10" s="14"/>
       <c r="I10" s="15"/>
-      <c r="J10" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="J10" s="16">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="K10" s="17" t="e">
         <f t="shared" ref="K10:L10" si="21">IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
@@ -1855,9 +1654,9 @@
         <f t="shared" si="21"/>
         <v>#REF!</v>
       </c>
-      <c r="M10" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="M10" s="16">
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="N10" s="16" t="e">
         <f t="shared" ref="N10:O10" si="22">IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
@@ -1876,9 +1675,9 @@
         <f t="shared" si="5"/>
         <v>#REF!</v>
       </c>
-      <c r="S10" s="20" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="S10" s="20">
+        <f t="shared" si="6"/>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="12.75">

--- a/User Stories [TEMPLATE].xlsx
+++ b/User Stories [TEMPLATE].xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semester 6\SE\SPRINTS\Sprint2C5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fares_000\Desktop\sprint 2\Sprint2C5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,12 +15,12 @@
     <sheet name="User Stories" sheetId="1" r:id="rId1"/>
     <sheet name="Analysis" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
   <si>
     <t xml:space="preserve"> EPIC</t>
   </si>
@@ -126,11 +126,20 @@
   <si>
     <t>MD</t>
   </si>
+  <si>
+    <t>as an Expert I want to be able to accept/reject the asked questions from the users</t>
+  </si>
+  <si>
+    <t>as an Expert I want to be able to send the available  slots for the requesting user</t>
+  </si>
+  <si>
+    <t>as an Expert I want to be able to receive confirmation message before the session</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7">
     <font>
       <sz val="10"/>
@@ -907,6 +916,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -942,6 +968,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1124,8 +1167,8 @@
   <dimension ref="A1:S996"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1778,17 +1821,23 @@
     </row>
     <row r="13" spans="1:19" ht="12.75">
       <c r="A13" s="9"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
+      <c r="B13" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>34</v>
+      </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
       <c r="H13" s="14"/>
       <c r="I13" s="15"/>
-      <c r="J13" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="J13" s="16">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="K13" s="17" t="e">
         <f t="shared" ref="K13:L13" si="27">IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
@@ -1798,9 +1847,9 @@
         <f t="shared" si="27"/>
         <v>#REF!</v>
       </c>
-      <c r="M13" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="M13" s="16">
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="N13" s="16" t="e">
         <f t="shared" ref="N13:O13" si="28">IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
@@ -1819,24 +1868,30 @@
         <f t="shared" si="5"/>
         <v>#REF!</v>
       </c>
-      <c r="S13" s="20" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="S13" s="20">
+        <f t="shared" si="6"/>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="12.75">
       <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="12"/>
+      <c r="B14" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>34</v>
+      </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
       <c r="H14" s="14"/>
       <c r="I14" s="15"/>
-      <c r="J14" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="J14" s="16">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="K14" s="17" t="e">
         <f t="shared" ref="K14:L14" si="29">IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
@@ -1846,9 +1901,9 @@
         <f t="shared" si="29"/>
         <v>#REF!</v>
       </c>
-      <c r="M14" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="M14" s="16">
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="N14" s="16" t="e">
         <f t="shared" ref="N14:O14" si="30">IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
@@ -1867,24 +1922,30 @@
         <f t="shared" si="5"/>
         <v>#REF!</v>
       </c>
-      <c r="S14" s="20" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="S14" s="20">
+        <f t="shared" si="6"/>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="12.75">
       <c r="A15" s="9"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12"/>
+      <c r="B15" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
       <c r="H15" s="22"/>
       <c r="I15" s="15"/>
-      <c r="J15" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="J15" s="16">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="K15" s="17" t="e">
         <f t="shared" ref="K15:L15" si="31">IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
@@ -1894,9 +1955,9 @@
         <f t="shared" si="31"/>
         <v>#REF!</v>
       </c>
-      <c r="M15" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="M15" s="16">
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="N15" s="16" t="e">
         <f t="shared" ref="N15:O15" si="32">IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
@@ -1915,9 +1976,9 @@
         <f t="shared" si="5"/>
         <v>#REF!</v>
       </c>
-      <c r="S15" s="20" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="S15" s="20">
+        <f t="shared" si="6"/>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="12.75">

--- a/User Stories [TEMPLATE].xlsx
+++ b/User Stories [TEMPLATE].xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fares_000\Desktop\sprint 2\Sprint2C5\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="510" yWindow="570" windowWidth="14055" windowHeight="6090"/>
   </bookViews>
@@ -15,12 +10,12 @@
     <sheet name="User Stories" sheetId="1" r:id="rId1"/>
     <sheet name="Analysis" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
   <si>
     <t xml:space="preserve"> EPIC</t>
   </si>
@@ -112,16 +107,10 @@
     <t>2 Med</t>
   </si>
   <si>
-    <t>as a User I want to be able to request for the available slots to the expert</t>
-  </si>
-  <si>
     <t>as a User I want to be able to choose from the available slots</t>
   </si>
   <si>
     <t>as a User I want to be able to receive the URL of the chat room</t>
-  </si>
-  <si>
-    <t>depends on the expert answered the question</t>
   </si>
   <si>
     <t>MD</t>
@@ -135,11 +124,14 @@
   <si>
     <t>as an Expert I want to be able to receive confirmation message before the session</t>
   </si>
+  <si>
+    <t>as an Admin I want to be able to resend the undelievered messages to the right people</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7">
     <font>
       <sz val="10"/>
@@ -260,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -317,9 +309,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -883,7 +872,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -916,26 +905,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -968,23 +940,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1164,11 +1119,11 @@
   <sheetPr>
     <tabColor rgb="FF3C78D8"/>
   </sheetPr>
-  <dimension ref="A1:S996"/>
+  <dimension ref="A1:S995"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1260,7 +1215,7 @@
         <v>#REF!</v>
       </c>
       <c r="J2" s="16" t="str">
-        <f t="shared" ref="J2:J996" si="0">IF(C2="1 High",1,IF(C2="2 Med",2,IF(C2="3 Med",3,IF(C2="4 Low",4,""))))</f>
+        <f t="shared" ref="J2:J995" si="0">IF(C2="1 High",1,IF(C2="2 Med",2,IF(C2="3 Med",3,IF(C2="4 Low",4,""))))</f>
         <v/>
       </c>
       <c r="K2" s="17" t="e">
@@ -1272,7 +1227,7 @@
         <v>#REF!</v>
       </c>
       <c r="M2" s="16" t="str">
-        <f t="shared" ref="M2:M996" si="2">IF(C2="1 High",4,IF(C2="2 Med",3,IF(C2="3 Med",2,IF(C2="4 Low",1,""))))</f>
+        <f t="shared" ref="M2:M995" si="2">IF(C2="1 High",4,IF(C2="2 Med",3,IF(C2="3 Med",2,IF(C2="4 Low",1,""))))</f>
         <v/>
       </c>
       <c r="N2" s="16" t="e">
@@ -1284,18 +1239,18 @@
         <v>#REF!</v>
       </c>
       <c r="P2" s="18" t="str">
-        <f t="shared" ref="P2:P996" ca="1" si="4">IFERROR(__xludf.DUMMYFUNCTION("IF(ISNUMBER(FIND("":"",A2)),SPLIT(A2,"":""),"""")"),"[Theme, Epic, or Dept]")</f>
+        <f t="shared" ref="P2:P995" ca="1" si="4">IFERROR(__xludf.DUMMYFUNCTION("IF(ISNUMBER(FIND("":"",A2)),SPLIT(A2,"":""),"""")"),"[Theme, Epic, or Dept]")</f>
         <v>[Theme, Epic, or Dept]</v>
       </c>
       <c r="Q2" s="18" t="s">
         <v>23</v>
       </c>
       <c r="R2" s="19" t="e">
-        <f t="shared" ref="R2:R996" si="5">IF(#REF!="MVP","0.0 MVP",#REF!)</f>
+        <f t="shared" ref="R2:R995" si="5">IF(#REF!="MVP","0.0 MVP",#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="S2" s="20" t="str">
-        <f t="shared" ref="S2:S996" si="6">IF(NOT(ISBLANK(B2)),ROW(),"")</f>
+        <f t="shared" ref="S2:S995" si="6">IF(NOT(ISBLANK(B2)),ROW(),"")</f>
         <v/>
       </c>
     </row>
@@ -1559,7 +1514,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="22.5">
+    <row r="8" spans="1:19" ht="12.75">
       <c r="A8" s="9"/>
       <c r="B8" s="23" t="s">
         <v>30</v>
@@ -1571,9 +1526,7 @@
         <v>26</v>
       </c>
       <c r="E8" s="13"/>
-      <c r="F8" s="24" t="s">
-        <v>33</v>
-      </c>
+      <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="14"/>
       <c r="I8" s="15"/>
@@ -1621,10 +1574,10 @@
         <v>31</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
@@ -1633,7 +1586,7 @@
       <c r="I9" s="15"/>
       <c r="J9" s="16">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K9" s="17" t="e">
         <f t="shared" ref="K9:L9" si="19">IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
@@ -1645,7 +1598,7 @@
       </c>
       <c r="M9" s="16">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N9" s="16" t="e">
         <f t="shared" ref="N9:O9" si="20">IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
@@ -1671,23 +1624,17 @@
     </row>
     <row r="10" spans="1:19" ht="12.75">
       <c r="A10" s="9"/>
-      <c r="B10" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>34</v>
-      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="12"/>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
       <c r="H10" s="14"/>
       <c r="I10" s="15"/>
-      <c r="J10" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="J10" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="K10" s="17" t="e">
         <f t="shared" ref="K10:L10" si="21">IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
@@ -1697,9 +1644,9 @@
         <f t="shared" si="21"/>
         <v>#REF!</v>
       </c>
-      <c r="M10" s="16">
-        <f t="shared" si="2"/>
-        <v>4</v>
+      <c r="M10" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="N10" s="16" t="e">
         <f t="shared" ref="N10:O10" si="22">IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
@@ -1718,9 +1665,9 @@
         <f t="shared" si="5"/>
         <v>#REF!</v>
       </c>
-      <c r="S10" s="20">
-        <f t="shared" si="6"/>
-        <v>10</v>
+      <c r="S10" s="20" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
     </row>
     <row r="11" spans="1:19" ht="12.75">
@@ -1773,17 +1720,23 @@
     </row>
     <row r="12" spans="1:19" ht="12.75">
       <c r="A12" s="9"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12"/>
+      <c r="B12" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="14"/>
       <c r="I12" s="15"/>
-      <c r="J12" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="J12" s="16">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="K12" s="17" t="e">
         <f t="shared" ref="K12:L12" si="25">IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
@@ -1793,9 +1746,9 @@
         <f t="shared" si="25"/>
         <v>#REF!</v>
       </c>
-      <c r="M12" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="M12" s="16">
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="N12" s="16" t="e">
         <f t="shared" ref="N12:O12" si="26">IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
@@ -1814,21 +1767,21 @@
         <f t="shared" si="5"/>
         <v>#REF!</v>
       </c>
-      <c r="S12" s="20" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="S12" s="20">
+        <f t="shared" si="6"/>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="12.75">
       <c r="A13" s="9"/>
       <c r="B13" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
@@ -1876,18 +1829,18 @@
     <row r="14" spans="1:19" ht="12.75">
       <c r="A14" s="9"/>
       <c r="B14" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="14"/>
+        <v>26</v>
+      </c>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="22"/>
       <c r="I14" s="15"/>
       <c r="J14" s="16">
         <f t="shared" si="0"/>
@@ -1929,23 +1882,17 @@
     </row>
     <row r="15" spans="1:19" ht="12.75">
       <c r="A15" s="9"/>
-      <c r="B15" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="22"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="14"/>
       <c r="I15" s="15"/>
-      <c r="J15" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="J15" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="K15" s="17" t="e">
         <f t="shared" ref="K15:L15" si="31">IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
@@ -1955,9 +1902,9 @@
         <f t="shared" si="31"/>
         <v>#REF!</v>
       </c>
-      <c r="M15" s="16">
-        <f t="shared" si="2"/>
-        <v>4</v>
+      <c r="M15" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="N15" s="16" t="e">
         <f t="shared" ref="N15:O15" si="32">IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
@@ -1976,24 +1923,30 @@
         <f t="shared" si="5"/>
         <v>#REF!</v>
       </c>
-      <c r="S15" s="20">
-        <f t="shared" si="6"/>
-        <v>15</v>
+      <c r="S15" s="20" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
     </row>
     <row r="16" spans="1:19" ht="12.75">
       <c r="A16" s="9"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="14"/>
+      <c r="B16" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="22"/>
       <c r="I16" s="15"/>
-      <c r="J16" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="J16" s="16">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="K16" s="17" t="e">
         <f t="shared" ref="K16:L16" si="33">IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
@@ -2003,9 +1956,9 @@
         <f t="shared" si="33"/>
         <v>#REF!</v>
       </c>
-      <c r="M16" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="M16" s="16">
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="N16" s="16" t="e">
         <f t="shared" ref="N16:O16" si="34">IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
@@ -2024,9 +1977,9 @@
         <f t="shared" si="5"/>
         <v>#REF!</v>
       </c>
-      <c r="S16" s="20" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="S16" s="20">
+        <f t="shared" si="6"/>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="12.75">
@@ -2034,10 +1987,10 @@
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
       <c r="D17" s="12"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="22"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
       <c r="I17" s="15"/>
       <c r="J17" s="16" t="str">
         <f t="shared" si="0"/>
@@ -2226,10 +2179,10 @@
       <c r="B21" s="10"/>
       <c r="C21" s="11"/>
       <c r="D21" s="12"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="14"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="22"/>
       <c r="I21" s="15"/>
       <c r="J21" s="16" t="str">
         <f t="shared" si="0"/>
@@ -2370,10 +2323,10 @@
       <c r="B24" s="10"/>
       <c r="C24" s="11"/>
       <c r="D24" s="12"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="22"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="14"/>
       <c r="I24" s="15"/>
       <c r="J24" s="16" t="str">
         <f t="shared" si="0"/>
@@ -2466,10 +2419,10 @@
       <c r="B26" s="10"/>
       <c r="C26" s="11"/>
       <c r="D26" s="12"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="14"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="22"/>
       <c r="I26" s="15"/>
       <c r="J26" s="16" t="str">
         <f t="shared" si="0"/>
@@ -2514,10 +2467,10 @@
       <c r="B27" s="10"/>
       <c r="C27" s="11"/>
       <c r="D27" s="12"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="22"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="14"/>
       <c r="I27" s="15"/>
       <c r="J27" s="16" t="str">
         <f t="shared" si="0"/>
@@ -2850,10 +2803,10 @@
       <c r="B34" s="10"/>
       <c r="C34" s="11"/>
       <c r="D34" s="12"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="14"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="22"/>
       <c r="I34" s="15"/>
       <c r="J34" s="16" t="str">
         <f t="shared" si="0"/>
@@ -2898,10 +2851,10 @@
       <c r="B35" s="10"/>
       <c r="C35" s="11"/>
       <c r="D35" s="12"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="22"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="14"/>
       <c r="I35" s="15"/>
       <c r="J35" s="16" t="str">
         <f t="shared" si="0"/>
@@ -2994,10 +2947,10 @@
       <c r="B37" s="10"/>
       <c r="C37" s="11"/>
       <c r="D37" s="12"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="14"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="22"/>
       <c r="I37" s="15"/>
       <c r="J37" s="16" t="str">
         <f t="shared" si="0"/>
@@ -3042,10 +2995,10 @@
       <c r="B38" s="10"/>
       <c r="C38" s="11"/>
       <c r="D38" s="12"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="22"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="14"/>
       <c r="I38" s="15"/>
       <c r="J38" s="16" t="str">
         <f t="shared" si="0"/>
@@ -3717,7 +3670,7 @@
       <c r="E52" s="13"/>
       <c r="F52" s="13"/>
       <c r="G52" s="13"/>
-      <c r="H52" s="14"/>
+      <c r="H52" s="13"/>
       <c r="I52" s="15"/>
       <c r="J52" s="16" t="str">
         <f t="shared" si="0"/>
@@ -9910,17 +9863,20 @@
       <c r="F181" s="13"/>
       <c r="G181" s="13"/>
       <c r="H181" s="13"/>
-      <c r="I181" s="15"/>
+      <c r="I181" s="15" t="e">
+        <f t="shared" ref="I181:I995" si="363">IF(AND(OR(#REF!="1 High",#REF!="2 Med"),OR(#REF!="1 High",#REF!="2 Med")),"Strategic",IF(AND(OR(#REF!="1 High",#REF!="2 Med"),OR(#REF!="3 Med",#REF!="4 Low")),"Leveraged",IF(AND(OR(#REF!="3 Med",#REF!="4 Low"),OR(#REF!="1 High",#REF!="2 Med")),"Focused",IF(AND(OR(#REF!="3 Med",#REF!="4 Low"),OR(#REF!="3 Med",#REF!="4 Low")),"Routine",""))))</f>
+        <v>#REF!</v>
+      </c>
       <c r="J181" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="K181" s="17" t="e">
-        <f t="shared" ref="K181:L181" si="363">IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
+        <f t="shared" ref="K181:L181" si="364">IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
         <v>#REF!</v>
       </c>
       <c r="L181" s="16" t="e">
-        <f t="shared" si="363"/>
+        <f t="shared" si="364"/>
         <v>#REF!</v>
       </c>
       <c r="M181" s="16" t="str">
@@ -9928,11 +9884,11 @@
         <v/>
       </c>
       <c r="N181" s="16" t="e">
-        <f t="shared" ref="N181:O181" si="364">IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
+        <f t="shared" ref="N181:O181" si="365">IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
         <v>#REF!</v>
       </c>
       <c r="O181" s="16" t="e">
-        <f t="shared" si="364"/>
+        <f t="shared" si="365"/>
         <v>#REF!</v>
       </c>
       <c r="P181" s="18" t="str">
@@ -9959,7 +9915,7 @@
       <c r="G182" s="13"/>
       <c r="H182" s="13"/>
       <c r="I182" s="15" t="e">
-        <f t="shared" ref="I182:I996" si="365">IF(AND(OR(#REF!="1 High",#REF!="2 Med"),OR(#REF!="1 High",#REF!="2 Med")),"Strategic",IF(AND(OR(#REF!="1 High",#REF!="2 Med"),OR(#REF!="3 Med",#REF!="4 Low")),"Leveraged",IF(AND(OR(#REF!="3 Med",#REF!="4 Low"),OR(#REF!="1 High",#REF!="2 Med")),"Focused",IF(AND(OR(#REF!="3 Med",#REF!="4 Low"),OR(#REF!="3 Med",#REF!="4 Low")),"Routine",""))))</f>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J182" s="16" t="str">
@@ -10010,7 +9966,7 @@
       <c r="G183" s="13"/>
       <c r="H183" s="13"/>
       <c r="I183" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J183" s="16" t="str">
@@ -10061,7 +10017,7 @@
       <c r="G184" s="13"/>
       <c r="H184" s="13"/>
       <c r="I184" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J184" s="16" t="str">
@@ -10112,7 +10068,7 @@
       <c r="G185" s="13"/>
       <c r="H185" s="13"/>
       <c r="I185" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J185" s="16" t="str">
@@ -10163,7 +10119,7 @@
       <c r="G186" s="13"/>
       <c r="H186" s="13"/>
       <c r="I186" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J186" s="16" t="str">
@@ -10214,7 +10170,7 @@
       <c r="G187" s="13"/>
       <c r="H187" s="13"/>
       <c r="I187" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J187" s="16" t="str">
@@ -10265,7 +10221,7 @@
       <c r="G188" s="13"/>
       <c r="H188" s="13"/>
       <c r="I188" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J188" s="16" t="str">
@@ -10316,7 +10272,7 @@
       <c r="G189" s="13"/>
       <c r="H189" s="13"/>
       <c r="I189" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J189" s="16" t="str">
@@ -10367,7 +10323,7 @@
       <c r="G190" s="13"/>
       <c r="H190" s="13"/>
       <c r="I190" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J190" s="16" t="str">
@@ -10418,7 +10374,7 @@
       <c r="G191" s="13"/>
       <c r="H191" s="13"/>
       <c r="I191" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J191" s="16" t="str">
@@ -10469,7 +10425,7 @@
       <c r="G192" s="13"/>
       <c r="H192" s="13"/>
       <c r="I192" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J192" s="16" t="str">
@@ -10520,7 +10476,7 @@
       <c r="G193" s="13"/>
       <c r="H193" s="13"/>
       <c r="I193" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J193" s="16" t="str">
@@ -10571,7 +10527,7 @@
       <c r="G194" s="13"/>
       <c r="H194" s="13"/>
       <c r="I194" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J194" s="16" t="str">
@@ -10622,7 +10578,7 @@
       <c r="G195" s="13"/>
       <c r="H195" s="13"/>
       <c r="I195" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J195" s="16" t="str">
@@ -10673,7 +10629,7 @@
       <c r="G196" s="13"/>
       <c r="H196" s="13"/>
       <c r="I196" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J196" s="16" t="str">
@@ -10724,7 +10680,7 @@
       <c r="G197" s="13"/>
       <c r="H197" s="13"/>
       <c r="I197" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J197" s="16" t="str">
@@ -10775,7 +10731,7 @@
       <c r="G198" s="13"/>
       <c r="H198" s="13"/>
       <c r="I198" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J198" s="16" t="str">
@@ -10826,7 +10782,7 @@
       <c r="G199" s="13"/>
       <c r="H199" s="13"/>
       <c r="I199" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J199" s="16" t="str">
@@ -10877,7 +10833,7 @@
       <c r="G200" s="13"/>
       <c r="H200" s="13"/>
       <c r="I200" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J200" s="16" t="str">
@@ -10928,7 +10884,7 @@
       <c r="G201" s="13"/>
       <c r="H201" s="13"/>
       <c r="I201" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J201" s="16" t="str">
@@ -10979,7 +10935,7 @@
       <c r="G202" s="13"/>
       <c r="H202" s="13"/>
       <c r="I202" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J202" s="16" t="str">
@@ -11030,7 +10986,7 @@
       <c r="G203" s="13"/>
       <c r="H203" s="13"/>
       <c r="I203" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J203" s="16" t="str">
@@ -11081,7 +11037,7 @@
       <c r="G204" s="13"/>
       <c r="H204" s="13"/>
       <c r="I204" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J204" s="16" t="str">
@@ -11132,7 +11088,7 @@
       <c r="G205" s="13"/>
       <c r="H205" s="13"/>
       <c r="I205" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J205" s="16" t="str">
@@ -11183,7 +11139,7 @@
       <c r="G206" s="13"/>
       <c r="H206" s="13"/>
       <c r="I206" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J206" s="16" t="str">
@@ -11234,7 +11190,7 @@
       <c r="G207" s="13"/>
       <c r="H207" s="13"/>
       <c r="I207" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J207" s="16" t="str">
@@ -11285,7 +11241,7 @@
       <c r="G208" s="13"/>
       <c r="H208" s="13"/>
       <c r="I208" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J208" s="16" t="str">
@@ -11336,7 +11292,7 @@
       <c r="G209" s="13"/>
       <c r="H209" s="13"/>
       <c r="I209" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J209" s="16" t="str">
@@ -11387,7 +11343,7 @@
       <c r="G210" s="13"/>
       <c r="H210" s="13"/>
       <c r="I210" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J210" s="16" t="str">
@@ -11438,7 +11394,7 @@
       <c r="G211" s="13"/>
       <c r="H211" s="13"/>
       <c r="I211" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J211" s="16" t="str">
@@ -11489,7 +11445,7 @@
       <c r="G212" s="13"/>
       <c r="H212" s="13"/>
       <c r="I212" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J212" s="16" t="str">
@@ -11540,7 +11496,7 @@
       <c r="G213" s="13"/>
       <c r="H213" s="13"/>
       <c r="I213" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J213" s="16" t="str">
@@ -11591,7 +11547,7 @@
       <c r="G214" s="13"/>
       <c r="H214" s="13"/>
       <c r="I214" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J214" s="16" t="str">
@@ -11642,7 +11598,7 @@
       <c r="G215" s="13"/>
       <c r="H215" s="13"/>
       <c r="I215" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J215" s="16" t="str">
@@ -11693,7 +11649,7 @@
       <c r="G216" s="13"/>
       <c r="H216" s="13"/>
       <c r="I216" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J216" s="16" t="str">
@@ -11744,7 +11700,7 @@
       <c r="G217" s="13"/>
       <c r="H217" s="13"/>
       <c r="I217" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J217" s="16" t="str">
@@ -11795,7 +11751,7 @@
       <c r="G218" s="13"/>
       <c r="H218" s="13"/>
       <c r="I218" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J218" s="16" t="str">
@@ -11846,7 +11802,7 @@
       <c r="G219" s="13"/>
       <c r="H219" s="13"/>
       <c r="I219" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J219" s="16" t="str">
@@ -11897,7 +11853,7 @@
       <c r="G220" s="13"/>
       <c r="H220" s="13"/>
       <c r="I220" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J220" s="16" t="str">
@@ -11948,7 +11904,7 @@
       <c r="G221" s="13"/>
       <c r="H221" s="13"/>
       <c r="I221" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J221" s="16" t="str">
@@ -11999,7 +11955,7 @@
       <c r="G222" s="13"/>
       <c r="H222" s="13"/>
       <c r="I222" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J222" s="16" t="str">
@@ -12050,7 +12006,7 @@
       <c r="G223" s="13"/>
       <c r="H223" s="13"/>
       <c r="I223" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J223" s="16" t="str">
@@ -12101,7 +12057,7 @@
       <c r="G224" s="13"/>
       <c r="H224" s="13"/>
       <c r="I224" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J224" s="16" t="str">
@@ -12152,7 +12108,7 @@
       <c r="G225" s="13"/>
       <c r="H225" s="13"/>
       <c r="I225" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J225" s="16" t="str">
@@ -12203,7 +12159,7 @@
       <c r="G226" s="13"/>
       <c r="H226" s="13"/>
       <c r="I226" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J226" s="16" t="str">
@@ -12254,7 +12210,7 @@
       <c r="G227" s="13"/>
       <c r="H227" s="13"/>
       <c r="I227" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J227" s="16" t="str">
@@ -12305,7 +12261,7 @@
       <c r="G228" s="13"/>
       <c r="H228" s="13"/>
       <c r="I228" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J228" s="16" t="str">
@@ -12356,7 +12312,7 @@
       <c r="G229" s="13"/>
       <c r="H229" s="13"/>
       <c r="I229" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J229" s="16" t="str">
@@ -12407,7 +12363,7 @@
       <c r="G230" s="13"/>
       <c r="H230" s="13"/>
       <c r="I230" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J230" s="16" t="str">
@@ -12458,7 +12414,7 @@
       <c r="G231" s="13"/>
       <c r="H231" s="13"/>
       <c r="I231" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J231" s="16" t="str">
@@ -12509,7 +12465,7 @@
       <c r="G232" s="13"/>
       <c r="H232" s="13"/>
       <c r="I232" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J232" s="16" t="str">
@@ -12560,7 +12516,7 @@
       <c r="G233" s="13"/>
       <c r="H233" s="13"/>
       <c r="I233" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J233" s="16" t="str">
@@ -12611,7 +12567,7 @@
       <c r="G234" s="13"/>
       <c r="H234" s="13"/>
       <c r="I234" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J234" s="16" t="str">
@@ -12662,7 +12618,7 @@
       <c r="G235" s="13"/>
       <c r="H235" s="13"/>
       <c r="I235" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J235" s="16" t="str">
@@ -12713,7 +12669,7 @@
       <c r="G236" s="13"/>
       <c r="H236" s="13"/>
       <c r="I236" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J236" s="16" t="str">
@@ -12764,7 +12720,7 @@
       <c r="G237" s="13"/>
       <c r="H237" s="13"/>
       <c r="I237" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J237" s="16" t="str">
@@ -12815,7 +12771,7 @@
       <c r="G238" s="13"/>
       <c r="H238" s="13"/>
       <c r="I238" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J238" s="16" t="str">
@@ -12866,7 +12822,7 @@
       <c r="G239" s="13"/>
       <c r="H239" s="13"/>
       <c r="I239" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J239" s="16" t="str">
@@ -12917,7 +12873,7 @@
       <c r="G240" s="13"/>
       <c r="H240" s="13"/>
       <c r="I240" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J240" s="16" t="str">
@@ -12968,7 +12924,7 @@
       <c r="G241" s="13"/>
       <c r="H241" s="13"/>
       <c r="I241" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J241" s="16" t="str">
@@ -13019,7 +12975,7 @@
       <c r="G242" s="13"/>
       <c r="H242" s="13"/>
       <c r="I242" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J242" s="16" t="str">
@@ -13070,7 +13026,7 @@
       <c r="G243" s="13"/>
       <c r="H243" s="13"/>
       <c r="I243" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J243" s="16" t="str">
@@ -13121,7 +13077,7 @@
       <c r="G244" s="13"/>
       <c r="H244" s="13"/>
       <c r="I244" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J244" s="16" t="str">
@@ -13172,7 +13128,7 @@
       <c r="G245" s="13"/>
       <c r="H245" s="13"/>
       <c r="I245" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J245" s="16" t="str">
@@ -13223,7 +13179,7 @@
       <c r="G246" s="13"/>
       <c r="H246" s="13"/>
       <c r="I246" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J246" s="16" t="str">
@@ -13274,7 +13230,7 @@
       <c r="G247" s="13"/>
       <c r="H247" s="13"/>
       <c r="I247" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J247" s="16" t="str">
@@ -13325,7 +13281,7 @@
       <c r="G248" s="13"/>
       <c r="H248" s="13"/>
       <c r="I248" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J248" s="16" t="str">
@@ -13376,7 +13332,7 @@
       <c r="G249" s="13"/>
       <c r="H249" s="13"/>
       <c r="I249" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J249" s="16" t="str">
@@ -13427,7 +13383,7 @@
       <c r="G250" s="13"/>
       <c r="H250" s="13"/>
       <c r="I250" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J250" s="16" t="str">
@@ -13478,7 +13434,7 @@
       <c r="G251" s="13"/>
       <c r="H251" s="13"/>
       <c r="I251" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J251" s="16" t="str">
@@ -13529,7 +13485,7 @@
       <c r="G252" s="13"/>
       <c r="H252" s="13"/>
       <c r="I252" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J252" s="16" t="str">
@@ -13580,7 +13536,7 @@
       <c r="G253" s="13"/>
       <c r="H253" s="13"/>
       <c r="I253" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J253" s="16" t="str">
@@ -13631,7 +13587,7 @@
       <c r="G254" s="13"/>
       <c r="H254" s="13"/>
       <c r="I254" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J254" s="16" t="str">
@@ -13682,7 +13638,7 @@
       <c r="G255" s="13"/>
       <c r="H255" s="13"/>
       <c r="I255" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J255" s="16" t="str">
@@ -13733,7 +13689,7 @@
       <c r="G256" s="13"/>
       <c r="H256" s="13"/>
       <c r="I256" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J256" s="16" t="str">
@@ -13784,7 +13740,7 @@
       <c r="G257" s="13"/>
       <c r="H257" s="13"/>
       <c r="I257" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J257" s="16" t="str">
@@ -13835,7 +13791,7 @@
       <c r="G258" s="13"/>
       <c r="H258" s="13"/>
       <c r="I258" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J258" s="16" t="str">
@@ -13886,7 +13842,7 @@
       <c r="G259" s="13"/>
       <c r="H259" s="13"/>
       <c r="I259" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J259" s="16" t="str">
@@ -13937,7 +13893,7 @@
       <c r="G260" s="13"/>
       <c r="H260" s="13"/>
       <c r="I260" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J260" s="16" t="str">
@@ -13988,7 +13944,7 @@
       <c r="G261" s="13"/>
       <c r="H261" s="13"/>
       <c r="I261" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J261" s="16" t="str">
@@ -14039,7 +13995,7 @@
       <c r="G262" s="13"/>
       <c r="H262" s="13"/>
       <c r="I262" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J262" s="16" t="str">
@@ -14090,7 +14046,7 @@
       <c r="G263" s="13"/>
       <c r="H263" s="13"/>
       <c r="I263" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J263" s="16" t="str">
@@ -14141,7 +14097,7 @@
       <c r="G264" s="13"/>
       <c r="H264" s="13"/>
       <c r="I264" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J264" s="16" t="str">
@@ -14192,7 +14148,7 @@
       <c r="G265" s="13"/>
       <c r="H265" s="13"/>
       <c r="I265" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J265" s="16" t="str">
@@ -14243,7 +14199,7 @@
       <c r="G266" s="13"/>
       <c r="H266" s="13"/>
       <c r="I266" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J266" s="16" t="str">
@@ -14294,7 +14250,7 @@
       <c r="G267" s="13"/>
       <c r="H267" s="13"/>
       <c r="I267" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J267" s="16" t="str">
@@ -14345,7 +14301,7 @@
       <c r="G268" s="13"/>
       <c r="H268" s="13"/>
       <c r="I268" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J268" s="16" t="str">
@@ -14396,7 +14352,7 @@
       <c r="G269" s="13"/>
       <c r="H269" s="13"/>
       <c r="I269" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J269" s="16" t="str">
@@ -14447,7 +14403,7 @@
       <c r="G270" s="13"/>
       <c r="H270" s="13"/>
       <c r="I270" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J270" s="16" t="str">
@@ -14498,7 +14454,7 @@
       <c r="G271" s="13"/>
       <c r="H271" s="13"/>
       <c r="I271" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J271" s="16" t="str">
@@ -14549,7 +14505,7 @@
       <c r="G272" s="13"/>
       <c r="H272" s="13"/>
       <c r="I272" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J272" s="16" t="str">
@@ -14600,7 +14556,7 @@
       <c r="G273" s="13"/>
       <c r="H273" s="13"/>
       <c r="I273" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J273" s="16" t="str">
@@ -14651,7 +14607,7 @@
       <c r="G274" s="13"/>
       <c r="H274" s="13"/>
       <c r="I274" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J274" s="16" t="str">
@@ -14702,7 +14658,7 @@
       <c r="G275" s="13"/>
       <c r="H275" s="13"/>
       <c r="I275" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J275" s="16" t="str">
@@ -14753,7 +14709,7 @@
       <c r="G276" s="13"/>
       <c r="H276" s="13"/>
       <c r="I276" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J276" s="16" t="str">
@@ -14804,7 +14760,7 @@
       <c r="G277" s="13"/>
       <c r="H277" s="13"/>
       <c r="I277" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J277" s="16" t="str">
@@ -14855,7 +14811,7 @@
       <c r="G278" s="13"/>
       <c r="H278" s="13"/>
       <c r="I278" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J278" s="16" t="str">
@@ -14906,7 +14862,7 @@
       <c r="G279" s="13"/>
       <c r="H279" s="13"/>
       <c r="I279" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J279" s="16" t="str">
@@ -14957,7 +14913,7 @@
       <c r="G280" s="13"/>
       <c r="H280" s="13"/>
       <c r="I280" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J280" s="16" t="str">
@@ -15008,7 +14964,7 @@
       <c r="G281" s="13"/>
       <c r="H281" s="13"/>
       <c r="I281" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J281" s="16" t="str">
@@ -15059,7 +15015,7 @@
       <c r="G282" s="13"/>
       <c r="H282" s="13"/>
       <c r="I282" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J282" s="16" t="str">
@@ -15110,7 +15066,7 @@
       <c r="G283" s="13"/>
       <c r="H283" s="13"/>
       <c r="I283" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J283" s="16" t="str">
@@ -15161,7 +15117,7 @@
       <c r="G284" s="13"/>
       <c r="H284" s="13"/>
       <c r="I284" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J284" s="16" t="str">
@@ -15212,7 +15168,7 @@
       <c r="G285" s="13"/>
       <c r="H285" s="13"/>
       <c r="I285" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J285" s="16" t="str">
@@ -15263,7 +15219,7 @@
       <c r="G286" s="13"/>
       <c r="H286" s="13"/>
       <c r="I286" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J286" s="16" t="str">
@@ -15314,7 +15270,7 @@
       <c r="G287" s="13"/>
       <c r="H287" s="13"/>
       <c r="I287" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J287" s="16" t="str">
@@ -15365,7 +15321,7 @@
       <c r="G288" s="13"/>
       <c r="H288" s="13"/>
       <c r="I288" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J288" s="16" t="str">
@@ -15416,7 +15372,7 @@
       <c r="G289" s="13"/>
       <c r="H289" s="13"/>
       <c r="I289" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J289" s="16" t="str">
@@ -15467,7 +15423,7 @@
       <c r="G290" s="13"/>
       <c r="H290" s="13"/>
       <c r="I290" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J290" s="16" t="str">
@@ -15518,7 +15474,7 @@
       <c r="G291" s="13"/>
       <c r="H291" s="13"/>
       <c r="I291" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J291" s="16" t="str">
@@ -15569,7 +15525,7 @@
       <c r="G292" s="13"/>
       <c r="H292" s="13"/>
       <c r="I292" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J292" s="16" t="str">
@@ -15620,7 +15576,7 @@
       <c r="G293" s="13"/>
       <c r="H293" s="13"/>
       <c r="I293" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J293" s="16" t="str">
@@ -15671,7 +15627,7 @@
       <c r="G294" s="13"/>
       <c r="H294" s="13"/>
       <c r="I294" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J294" s="16" t="str">
@@ -15722,7 +15678,7 @@
       <c r="G295" s="13"/>
       <c r="H295" s="13"/>
       <c r="I295" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J295" s="16" t="str">
@@ -15773,7 +15729,7 @@
       <c r="G296" s="13"/>
       <c r="H296" s="13"/>
       <c r="I296" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J296" s="16" t="str">
@@ -15824,7 +15780,7 @@
       <c r="G297" s="13"/>
       <c r="H297" s="13"/>
       <c r="I297" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J297" s="16" t="str">
@@ -15875,7 +15831,7 @@
       <c r="G298" s="13"/>
       <c r="H298" s="13"/>
       <c r="I298" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J298" s="16" t="str">
@@ -15926,7 +15882,7 @@
       <c r="G299" s="13"/>
       <c r="H299" s="13"/>
       <c r="I299" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J299" s="16" t="str">
@@ -15977,7 +15933,7 @@
       <c r="G300" s="13"/>
       <c r="H300" s="13"/>
       <c r="I300" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J300" s="16" t="str">
@@ -16028,7 +15984,7 @@
       <c r="G301" s="13"/>
       <c r="H301" s="13"/>
       <c r="I301" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J301" s="16" t="str">
@@ -16079,7 +16035,7 @@
       <c r="G302" s="13"/>
       <c r="H302" s="13"/>
       <c r="I302" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J302" s="16" t="str">
@@ -16130,7 +16086,7 @@
       <c r="G303" s="13"/>
       <c r="H303" s="13"/>
       <c r="I303" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J303" s="16" t="str">
@@ -16181,7 +16137,7 @@
       <c r="G304" s="13"/>
       <c r="H304" s="13"/>
       <c r="I304" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J304" s="16" t="str">
@@ -16232,7 +16188,7 @@
       <c r="G305" s="13"/>
       <c r="H305" s="13"/>
       <c r="I305" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J305" s="16" t="str">
@@ -16283,7 +16239,7 @@
       <c r="G306" s="13"/>
       <c r="H306" s="13"/>
       <c r="I306" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J306" s="16" t="str">
@@ -16334,7 +16290,7 @@
       <c r="G307" s="13"/>
       <c r="H307" s="13"/>
       <c r="I307" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J307" s="16" t="str">
@@ -16385,7 +16341,7 @@
       <c r="G308" s="13"/>
       <c r="H308" s="13"/>
       <c r="I308" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J308" s="16" t="str">
@@ -16436,7 +16392,7 @@
       <c r="G309" s="13"/>
       <c r="H309" s="13"/>
       <c r="I309" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J309" s="16" t="str">
@@ -16487,7 +16443,7 @@
       <c r="G310" s="13"/>
       <c r="H310" s="13"/>
       <c r="I310" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J310" s="16" t="str">
@@ -16538,7 +16494,7 @@
       <c r="G311" s="13"/>
       <c r="H311" s="13"/>
       <c r="I311" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J311" s="16" t="str">
@@ -16589,7 +16545,7 @@
       <c r="G312" s="13"/>
       <c r="H312" s="13"/>
       <c r="I312" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J312" s="16" t="str">
@@ -16640,7 +16596,7 @@
       <c r="G313" s="13"/>
       <c r="H313" s="13"/>
       <c r="I313" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J313" s="16" t="str">
@@ -16691,7 +16647,7 @@
       <c r="G314" s="13"/>
       <c r="H314" s="13"/>
       <c r="I314" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J314" s="16" t="str">
@@ -16742,7 +16698,7 @@
       <c r="G315" s="13"/>
       <c r="H315" s="13"/>
       <c r="I315" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J315" s="16" t="str">
@@ -16793,7 +16749,7 @@
       <c r="G316" s="13"/>
       <c r="H316" s="13"/>
       <c r="I316" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J316" s="16" t="str">
@@ -16844,7 +16800,7 @@
       <c r="G317" s="13"/>
       <c r="H317" s="13"/>
       <c r="I317" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J317" s="16" t="str">
@@ -16895,7 +16851,7 @@
       <c r="G318" s="13"/>
       <c r="H318" s="13"/>
       <c r="I318" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J318" s="16" t="str">
@@ -16946,7 +16902,7 @@
       <c r="G319" s="13"/>
       <c r="H319" s="13"/>
       <c r="I319" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J319" s="16" t="str">
@@ -16997,7 +16953,7 @@
       <c r="G320" s="13"/>
       <c r="H320" s="13"/>
       <c r="I320" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J320" s="16" t="str">
@@ -17048,7 +17004,7 @@
       <c r="G321" s="13"/>
       <c r="H321" s="13"/>
       <c r="I321" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J321" s="16" t="str">
@@ -17099,7 +17055,7 @@
       <c r="G322" s="13"/>
       <c r="H322" s="13"/>
       <c r="I322" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J322" s="16" t="str">
@@ -17150,7 +17106,7 @@
       <c r="G323" s="13"/>
       <c r="H323" s="13"/>
       <c r="I323" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J323" s="16" t="str">
@@ -17201,7 +17157,7 @@
       <c r="G324" s="13"/>
       <c r="H324" s="13"/>
       <c r="I324" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J324" s="16" t="str">
@@ -17252,7 +17208,7 @@
       <c r="G325" s="13"/>
       <c r="H325" s="13"/>
       <c r="I325" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J325" s="16" t="str">
@@ -17303,7 +17259,7 @@
       <c r="G326" s="13"/>
       <c r="H326" s="13"/>
       <c r="I326" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J326" s="16" t="str">
@@ -17354,7 +17310,7 @@
       <c r="G327" s="13"/>
       <c r="H327" s="13"/>
       <c r="I327" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J327" s="16" t="str">
@@ -17405,7 +17361,7 @@
       <c r="G328" s="13"/>
       <c r="H328" s="13"/>
       <c r="I328" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J328" s="16" t="str">
@@ -17456,7 +17412,7 @@
       <c r="G329" s="13"/>
       <c r="H329" s="13"/>
       <c r="I329" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J329" s="16" t="str">
@@ -17507,7 +17463,7 @@
       <c r="G330" s="13"/>
       <c r="H330" s="13"/>
       <c r="I330" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J330" s="16" t="str">
@@ -17558,7 +17514,7 @@
       <c r="G331" s="13"/>
       <c r="H331" s="13"/>
       <c r="I331" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J331" s="16" t="str">
@@ -17609,7 +17565,7 @@
       <c r="G332" s="13"/>
       <c r="H332" s="13"/>
       <c r="I332" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J332" s="16" t="str">
@@ -17660,7 +17616,7 @@
       <c r="G333" s="13"/>
       <c r="H333" s="13"/>
       <c r="I333" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J333" s="16" t="str">
@@ -17711,7 +17667,7 @@
       <c r="G334" s="13"/>
       <c r="H334" s="13"/>
       <c r="I334" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J334" s="16" t="str">
@@ -17762,7 +17718,7 @@
       <c r="G335" s="13"/>
       <c r="H335" s="13"/>
       <c r="I335" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J335" s="16" t="str">
@@ -17813,7 +17769,7 @@
       <c r="G336" s="13"/>
       <c r="H336" s="13"/>
       <c r="I336" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J336" s="16" t="str">
@@ -17864,7 +17820,7 @@
       <c r="G337" s="13"/>
       <c r="H337" s="13"/>
       <c r="I337" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J337" s="16" t="str">
@@ -17915,7 +17871,7 @@
       <c r="G338" s="13"/>
       <c r="H338" s="13"/>
       <c r="I338" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J338" s="16" t="str">
@@ -17966,7 +17922,7 @@
       <c r="G339" s="13"/>
       <c r="H339" s="13"/>
       <c r="I339" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J339" s="16" t="str">
@@ -18017,7 +17973,7 @@
       <c r="G340" s="13"/>
       <c r="H340" s="13"/>
       <c r="I340" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J340" s="16" t="str">
@@ -18068,7 +18024,7 @@
       <c r="G341" s="13"/>
       <c r="H341" s="13"/>
       <c r="I341" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J341" s="16" t="str">
@@ -18119,7 +18075,7 @@
       <c r="G342" s="13"/>
       <c r="H342" s="13"/>
       <c r="I342" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J342" s="16" t="str">
@@ -18170,7 +18126,7 @@
       <c r="G343" s="13"/>
       <c r="H343" s="13"/>
       <c r="I343" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J343" s="16" t="str">
@@ -18221,7 +18177,7 @@
       <c r="G344" s="13"/>
       <c r="H344" s="13"/>
       <c r="I344" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J344" s="16" t="str">
@@ -18272,7 +18228,7 @@
       <c r="G345" s="13"/>
       <c r="H345" s="13"/>
       <c r="I345" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J345" s="16" t="str">
@@ -18323,7 +18279,7 @@
       <c r="G346" s="13"/>
       <c r="H346" s="13"/>
       <c r="I346" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J346" s="16" t="str">
@@ -18374,7 +18330,7 @@
       <c r="G347" s="13"/>
       <c r="H347" s="13"/>
       <c r="I347" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J347" s="16" t="str">
@@ -18425,7 +18381,7 @@
       <c r="G348" s="13"/>
       <c r="H348" s="13"/>
       <c r="I348" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J348" s="16" t="str">
@@ -18476,7 +18432,7 @@
       <c r="G349" s="13"/>
       <c r="H349" s="13"/>
       <c r="I349" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J349" s="16" t="str">
@@ -18527,7 +18483,7 @@
       <c r="G350" s="13"/>
       <c r="H350" s="13"/>
       <c r="I350" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J350" s="16" t="str">
@@ -18578,7 +18534,7 @@
       <c r="G351" s="13"/>
       <c r="H351" s="13"/>
       <c r="I351" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J351" s="16" t="str">
@@ -18629,7 +18585,7 @@
       <c r="G352" s="13"/>
       <c r="H352" s="13"/>
       <c r="I352" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J352" s="16" t="str">
@@ -18680,7 +18636,7 @@
       <c r="G353" s="13"/>
       <c r="H353" s="13"/>
       <c r="I353" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J353" s="16" t="str">
@@ -18731,7 +18687,7 @@
       <c r="G354" s="13"/>
       <c r="H354" s="13"/>
       <c r="I354" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J354" s="16" t="str">
@@ -18782,7 +18738,7 @@
       <c r="G355" s="13"/>
       <c r="H355" s="13"/>
       <c r="I355" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J355" s="16" t="str">
@@ -18833,7 +18789,7 @@
       <c r="G356" s="13"/>
       <c r="H356" s="13"/>
       <c r="I356" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J356" s="16" t="str">
@@ -18884,7 +18840,7 @@
       <c r="G357" s="13"/>
       <c r="H357" s="13"/>
       <c r="I357" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J357" s="16" t="str">
@@ -18935,7 +18891,7 @@
       <c r="G358" s="13"/>
       <c r="H358" s="13"/>
       <c r="I358" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J358" s="16" t="str">
@@ -18986,7 +18942,7 @@
       <c r="G359" s="13"/>
       <c r="H359" s="13"/>
       <c r="I359" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J359" s="16" t="str">
@@ -19037,7 +18993,7 @@
       <c r="G360" s="13"/>
       <c r="H360" s="13"/>
       <c r="I360" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J360" s="16" t="str">
@@ -19088,7 +19044,7 @@
       <c r="G361" s="13"/>
       <c r="H361" s="13"/>
       <c r="I361" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J361" s="16" t="str">
@@ -19139,7 +19095,7 @@
       <c r="G362" s="13"/>
       <c r="H362" s="13"/>
       <c r="I362" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J362" s="16" t="str">
@@ -19190,7 +19146,7 @@
       <c r="G363" s="13"/>
       <c r="H363" s="13"/>
       <c r="I363" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J363" s="16" t="str">
@@ -19241,7 +19197,7 @@
       <c r="G364" s="13"/>
       <c r="H364" s="13"/>
       <c r="I364" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J364" s="16" t="str">
@@ -19292,7 +19248,7 @@
       <c r="G365" s="13"/>
       <c r="H365" s="13"/>
       <c r="I365" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J365" s="16" t="str">
@@ -19343,7 +19299,7 @@
       <c r="G366" s="13"/>
       <c r="H366" s="13"/>
       <c r="I366" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J366" s="16" t="str">
@@ -19394,7 +19350,7 @@
       <c r="G367" s="13"/>
       <c r="H367" s="13"/>
       <c r="I367" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J367" s="16" t="str">
@@ -19445,7 +19401,7 @@
       <c r="G368" s="13"/>
       <c r="H368" s="13"/>
       <c r="I368" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J368" s="16" t="str">
@@ -19496,7 +19452,7 @@
       <c r="G369" s="13"/>
       <c r="H369" s="13"/>
       <c r="I369" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J369" s="16" t="str">
@@ -19547,7 +19503,7 @@
       <c r="G370" s="13"/>
       <c r="H370" s="13"/>
       <c r="I370" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J370" s="16" t="str">
@@ -19598,7 +19554,7 @@
       <c r="G371" s="13"/>
       <c r="H371" s="13"/>
       <c r="I371" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J371" s="16" t="str">
@@ -19649,7 +19605,7 @@
       <c r="G372" s="13"/>
       <c r="H372" s="13"/>
       <c r="I372" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J372" s="16" t="str">
@@ -19700,7 +19656,7 @@
       <c r="G373" s="13"/>
       <c r="H373" s="13"/>
       <c r="I373" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J373" s="16" t="str">
@@ -19751,7 +19707,7 @@
       <c r="G374" s="13"/>
       <c r="H374" s="13"/>
       <c r="I374" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J374" s="16" t="str">
@@ -19802,7 +19758,7 @@
       <c r="G375" s="13"/>
       <c r="H375" s="13"/>
       <c r="I375" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J375" s="16" t="str">
@@ -19853,7 +19809,7 @@
       <c r="G376" s="13"/>
       <c r="H376" s="13"/>
       <c r="I376" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J376" s="16" t="str">
@@ -19904,7 +19860,7 @@
       <c r="G377" s="13"/>
       <c r="H377" s="13"/>
       <c r="I377" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J377" s="16" t="str">
@@ -19955,7 +19911,7 @@
       <c r="G378" s="13"/>
       <c r="H378" s="13"/>
       <c r="I378" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J378" s="16" t="str">
@@ -20006,7 +19962,7 @@
       <c r="G379" s="13"/>
       <c r="H379" s="13"/>
       <c r="I379" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J379" s="16" t="str">
@@ -20057,7 +20013,7 @@
       <c r="G380" s="13"/>
       <c r="H380" s="13"/>
       <c r="I380" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J380" s="16" t="str">
@@ -20108,7 +20064,7 @@
       <c r="G381" s="13"/>
       <c r="H381" s="13"/>
       <c r="I381" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J381" s="16" t="str">
@@ -20159,7 +20115,7 @@
       <c r="G382" s="13"/>
       <c r="H382" s="13"/>
       <c r="I382" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J382" s="16" t="str">
@@ -20210,7 +20166,7 @@
       <c r="G383" s="13"/>
       <c r="H383" s="13"/>
       <c r="I383" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J383" s="16" t="str">
@@ -20261,7 +20217,7 @@
       <c r="G384" s="13"/>
       <c r="H384" s="13"/>
       <c r="I384" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J384" s="16" t="str">
@@ -20312,7 +20268,7 @@
       <c r="G385" s="13"/>
       <c r="H385" s="13"/>
       <c r="I385" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J385" s="16" t="str">
@@ -20363,7 +20319,7 @@
       <c r="G386" s="13"/>
       <c r="H386" s="13"/>
       <c r="I386" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J386" s="16" t="str">
@@ -20414,7 +20370,7 @@
       <c r="G387" s="13"/>
       <c r="H387" s="13"/>
       <c r="I387" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J387" s="16" t="str">
@@ -20465,7 +20421,7 @@
       <c r="G388" s="13"/>
       <c r="H388" s="13"/>
       <c r="I388" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J388" s="16" t="str">
@@ -20516,7 +20472,7 @@
       <c r="G389" s="13"/>
       <c r="H389" s="13"/>
       <c r="I389" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J389" s="16" t="str">
@@ -20567,7 +20523,7 @@
       <c r="G390" s="13"/>
       <c r="H390" s="13"/>
       <c r="I390" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J390" s="16" t="str">
@@ -20618,7 +20574,7 @@
       <c r="G391" s="13"/>
       <c r="H391" s="13"/>
       <c r="I391" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J391" s="16" t="str">
@@ -20669,7 +20625,7 @@
       <c r="G392" s="13"/>
       <c r="H392" s="13"/>
       <c r="I392" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J392" s="16" t="str">
@@ -20720,7 +20676,7 @@
       <c r="G393" s="13"/>
       <c r="H393" s="13"/>
       <c r="I393" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J393" s="16" t="str">
@@ -20771,7 +20727,7 @@
       <c r="G394" s="13"/>
       <c r="H394" s="13"/>
       <c r="I394" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J394" s="16" t="str">
@@ -20822,7 +20778,7 @@
       <c r="G395" s="13"/>
       <c r="H395" s="13"/>
       <c r="I395" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J395" s="16" t="str">
@@ -20873,7 +20829,7 @@
       <c r="G396" s="13"/>
       <c r="H396" s="13"/>
       <c r="I396" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J396" s="16" t="str">
@@ -20924,7 +20880,7 @@
       <c r="G397" s="13"/>
       <c r="H397" s="13"/>
       <c r="I397" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J397" s="16" t="str">
@@ -20975,7 +20931,7 @@
       <c r="G398" s="13"/>
       <c r="H398" s="13"/>
       <c r="I398" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J398" s="16" t="str">
@@ -21026,7 +20982,7 @@
       <c r="G399" s="13"/>
       <c r="H399" s="13"/>
       <c r="I399" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J399" s="16" t="str">
@@ -21077,7 +21033,7 @@
       <c r="G400" s="13"/>
       <c r="H400" s="13"/>
       <c r="I400" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J400" s="16" t="str">
@@ -21128,7 +21084,7 @@
       <c r="G401" s="13"/>
       <c r="H401" s="13"/>
       <c r="I401" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J401" s="16" t="str">
@@ -21179,7 +21135,7 @@
       <c r="G402" s="13"/>
       <c r="H402" s="13"/>
       <c r="I402" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J402" s="16" t="str">
@@ -21230,7 +21186,7 @@
       <c r="G403" s="13"/>
       <c r="H403" s="13"/>
       <c r="I403" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J403" s="16" t="str">
@@ -21281,7 +21237,7 @@
       <c r="G404" s="13"/>
       <c r="H404" s="13"/>
       <c r="I404" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J404" s="16" t="str">
@@ -21332,7 +21288,7 @@
       <c r="G405" s="13"/>
       <c r="H405" s="13"/>
       <c r="I405" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J405" s="16" t="str">
@@ -21383,7 +21339,7 @@
       <c r="G406" s="13"/>
       <c r="H406" s="13"/>
       <c r="I406" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J406" s="16" t="str">
@@ -21434,7 +21390,7 @@
       <c r="G407" s="13"/>
       <c r="H407" s="13"/>
       <c r="I407" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J407" s="16" t="str">
@@ -21485,7 +21441,7 @@
       <c r="G408" s="13"/>
       <c r="H408" s="13"/>
       <c r="I408" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J408" s="16" t="str">
@@ -21536,7 +21492,7 @@
       <c r="G409" s="13"/>
       <c r="H409" s="13"/>
       <c r="I409" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J409" s="16" t="str">
@@ -21587,7 +21543,7 @@
       <c r="G410" s="13"/>
       <c r="H410" s="13"/>
       <c r="I410" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J410" s="16" t="str">
@@ -21638,7 +21594,7 @@
       <c r="G411" s="13"/>
       <c r="H411" s="13"/>
       <c r="I411" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J411" s="16" t="str">
@@ -21689,7 +21645,7 @@
       <c r="G412" s="13"/>
       <c r="H412" s="13"/>
       <c r="I412" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J412" s="16" t="str">
@@ -21740,7 +21696,7 @@
       <c r="G413" s="13"/>
       <c r="H413" s="13"/>
       <c r="I413" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J413" s="16" t="str">
@@ -21791,7 +21747,7 @@
       <c r="G414" s="13"/>
       <c r="H414" s="13"/>
       <c r="I414" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J414" s="16" t="str">
@@ -21842,7 +21798,7 @@
       <c r="G415" s="13"/>
       <c r="H415" s="13"/>
       <c r="I415" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J415" s="16" t="str">
@@ -21893,7 +21849,7 @@
       <c r="G416" s="13"/>
       <c r="H416" s="13"/>
       <c r="I416" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J416" s="16" t="str">
@@ -21944,7 +21900,7 @@
       <c r="G417" s="13"/>
       <c r="H417" s="13"/>
       <c r="I417" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J417" s="16" t="str">
@@ -21995,7 +21951,7 @@
       <c r="G418" s="13"/>
       <c r="H418" s="13"/>
       <c r="I418" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J418" s="16" t="str">
@@ -22046,7 +22002,7 @@
       <c r="G419" s="13"/>
       <c r="H419" s="13"/>
       <c r="I419" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J419" s="16" t="str">
@@ -22097,7 +22053,7 @@
       <c r="G420" s="13"/>
       <c r="H420" s="13"/>
       <c r="I420" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J420" s="16" t="str">
@@ -22148,7 +22104,7 @@
       <c r="G421" s="13"/>
       <c r="H421" s="13"/>
       <c r="I421" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J421" s="16" t="str">
@@ -22199,7 +22155,7 @@
       <c r="G422" s="13"/>
       <c r="H422" s="13"/>
       <c r="I422" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J422" s="16" t="str">
@@ -22250,7 +22206,7 @@
       <c r="G423" s="13"/>
       <c r="H423" s="13"/>
       <c r="I423" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J423" s="16" t="str">
@@ -22301,7 +22257,7 @@
       <c r="G424" s="13"/>
       <c r="H424" s="13"/>
       <c r="I424" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J424" s="16" t="str">
@@ -22352,7 +22308,7 @@
       <c r="G425" s="13"/>
       <c r="H425" s="13"/>
       <c r="I425" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J425" s="16" t="str">
@@ -22403,7 +22359,7 @@
       <c r="G426" s="13"/>
       <c r="H426" s="13"/>
       <c r="I426" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J426" s="16" t="str">
@@ -22454,7 +22410,7 @@
       <c r="G427" s="13"/>
       <c r="H427" s="13"/>
       <c r="I427" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J427" s="16" t="str">
@@ -22505,7 +22461,7 @@
       <c r="G428" s="13"/>
       <c r="H428" s="13"/>
       <c r="I428" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J428" s="16" t="str">
@@ -22556,7 +22512,7 @@
       <c r="G429" s="13"/>
       <c r="H429" s="13"/>
       <c r="I429" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J429" s="16" t="str">
@@ -22607,7 +22563,7 @@
       <c r="G430" s="13"/>
       <c r="H430" s="13"/>
       <c r="I430" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J430" s="16" t="str">
@@ -22658,7 +22614,7 @@
       <c r="G431" s="13"/>
       <c r="H431" s="13"/>
       <c r="I431" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J431" s="16" t="str">
@@ -22709,7 +22665,7 @@
       <c r="G432" s="13"/>
       <c r="H432" s="13"/>
       <c r="I432" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J432" s="16" t="str">
@@ -22760,7 +22716,7 @@
       <c r="G433" s="13"/>
       <c r="H433" s="13"/>
       <c r="I433" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J433" s="16" t="str">
@@ -22811,7 +22767,7 @@
       <c r="G434" s="13"/>
       <c r="H434" s="13"/>
       <c r="I434" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J434" s="16" t="str">
@@ -22862,7 +22818,7 @@
       <c r="G435" s="13"/>
       <c r="H435" s="13"/>
       <c r="I435" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J435" s="16" t="str">
@@ -22913,7 +22869,7 @@
       <c r="G436" s="13"/>
       <c r="H436" s="13"/>
       <c r="I436" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J436" s="16" t="str">
@@ -22964,7 +22920,7 @@
       <c r="G437" s="13"/>
       <c r="H437" s="13"/>
       <c r="I437" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J437" s="16" t="str">
@@ -23015,7 +22971,7 @@
       <c r="G438" s="13"/>
       <c r="H438" s="13"/>
       <c r="I438" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J438" s="16" t="str">
@@ -23066,7 +23022,7 @@
       <c r="G439" s="13"/>
       <c r="H439" s="13"/>
       <c r="I439" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J439" s="16" t="str">
@@ -23117,7 +23073,7 @@
       <c r="G440" s="13"/>
       <c r="H440" s="13"/>
       <c r="I440" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J440" s="16" t="str">
@@ -23168,7 +23124,7 @@
       <c r="G441" s="13"/>
       <c r="H441" s="13"/>
       <c r="I441" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J441" s="16" t="str">
@@ -23219,7 +23175,7 @@
       <c r="G442" s="13"/>
       <c r="H442" s="13"/>
       <c r="I442" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J442" s="16" t="str">
@@ -23270,7 +23226,7 @@
       <c r="G443" s="13"/>
       <c r="H443" s="13"/>
       <c r="I443" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J443" s="16" t="str">
@@ -23321,7 +23277,7 @@
       <c r="G444" s="13"/>
       <c r="H444" s="13"/>
       <c r="I444" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J444" s="16" t="str">
@@ -23372,7 +23328,7 @@
       <c r="G445" s="13"/>
       <c r="H445" s="13"/>
       <c r="I445" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J445" s="16" t="str">
@@ -23423,7 +23379,7 @@
       <c r="G446" s="13"/>
       <c r="H446" s="13"/>
       <c r="I446" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J446" s="16" t="str">
@@ -23474,7 +23430,7 @@
       <c r="G447" s="13"/>
       <c r="H447" s="13"/>
       <c r="I447" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J447" s="16" t="str">
@@ -23525,7 +23481,7 @@
       <c r="G448" s="13"/>
       <c r="H448" s="13"/>
       <c r="I448" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J448" s="16" t="str">
@@ -23576,7 +23532,7 @@
       <c r="G449" s="13"/>
       <c r="H449" s="13"/>
       <c r="I449" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J449" s="16" t="str">
@@ -23627,7 +23583,7 @@
       <c r="G450" s="13"/>
       <c r="H450" s="13"/>
       <c r="I450" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J450" s="16" t="str">
@@ -23678,7 +23634,7 @@
       <c r="G451" s="13"/>
       <c r="H451" s="13"/>
       <c r="I451" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J451" s="16" t="str">
@@ -23729,7 +23685,7 @@
       <c r="G452" s="13"/>
       <c r="H452" s="13"/>
       <c r="I452" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J452" s="16" t="str">
@@ -23780,7 +23736,7 @@
       <c r="G453" s="13"/>
       <c r="H453" s="13"/>
       <c r="I453" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J453" s="16" t="str">
@@ -23831,7 +23787,7 @@
       <c r="G454" s="13"/>
       <c r="H454" s="13"/>
       <c r="I454" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J454" s="16" t="str">
@@ -23882,7 +23838,7 @@
       <c r="G455" s="13"/>
       <c r="H455" s="13"/>
       <c r="I455" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J455" s="16" t="str">
@@ -23933,7 +23889,7 @@
       <c r="G456" s="13"/>
       <c r="H456" s="13"/>
       <c r="I456" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J456" s="16" t="str">
@@ -23984,7 +23940,7 @@
       <c r="G457" s="13"/>
       <c r="H457" s="13"/>
       <c r="I457" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J457" s="16" t="str">
@@ -24035,7 +23991,7 @@
       <c r="G458" s="13"/>
       <c r="H458" s="13"/>
       <c r="I458" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J458" s="16" t="str">
@@ -24086,7 +24042,7 @@
       <c r="G459" s="13"/>
       <c r="H459" s="13"/>
       <c r="I459" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J459" s="16" t="str">
@@ -24137,7 +24093,7 @@
       <c r="G460" s="13"/>
       <c r="H460" s="13"/>
       <c r="I460" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J460" s="16" t="str">
@@ -24188,7 +24144,7 @@
       <c r="G461" s="13"/>
       <c r="H461" s="13"/>
       <c r="I461" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J461" s="16" t="str">
@@ -24239,7 +24195,7 @@
       <c r="G462" s="13"/>
       <c r="H462" s="13"/>
       <c r="I462" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J462" s="16" t="str">
@@ -24290,7 +24246,7 @@
       <c r="G463" s="13"/>
       <c r="H463" s="13"/>
       <c r="I463" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J463" s="16" t="str">
@@ -24341,7 +24297,7 @@
       <c r="G464" s="13"/>
       <c r="H464" s="13"/>
       <c r="I464" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J464" s="16" t="str">
@@ -24392,7 +24348,7 @@
       <c r="G465" s="13"/>
       <c r="H465" s="13"/>
       <c r="I465" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J465" s="16" t="str">
@@ -24443,7 +24399,7 @@
       <c r="G466" s="13"/>
       <c r="H466" s="13"/>
       <c r="I466" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J466" s="16" t="str">
@@ -24494,7 +24450,7 @@
       <c r="G467" s="13"/>
       <c r="H467" s="13"/>
       <c r="I467" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J467" s="16" t="str">
@@ -24545,7 +24501,7 @@
       <c r="G468" s="13"/>
       <c r="H468" s="13"/>
       <c r="I468" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J468" s="16" t="str">
@@ -24596,7 +24552,7 @@
       <c r="G469" s="13"/>
       <c r="H469" s="13"/>
       <c r="I469" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J469" s="16" t="str">
@@ -24647,7 +24603,7 @@
       <c r="G470" s="13"/>
       <c r="H470" s="13"/>
       <c r="I470" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J470" s="16" t="str">
@@ -24698,7 +24654,7 @@
       <c r="G471" s="13"/>
       <c r="H471" s="13"/>
       <c r="I471" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J471" s="16" t="str">
@@ -24749,7 +24705,7 @@
       <c r="G472" s="13"/>
       <c r="H472" s="13"/>
       <c r="I472" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J472" s="16" t="str">
@@ -24800,7 +24756,7 @@
       <c r="G473" s="13"/>
       <c r="H473" s="13"/>
       <c r="I473" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J473" s="16" t="str">
@@ -24851,7 +24807,7 @@
       <c r="G474" s="13"/>
       <c r="H474" s="13"/>
       <c r="I474" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J474" s="16" t="str">
@@ -24902,7 +24858,7 @@
       <c r="G475" s="13"/>
       <c r="H475" s="13"/>
       <c r="I475" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J475" s="16" t="str">
@@ -24953,7 +24909,7 @@
       <c r="G476" s="13"/>
       <c r="H476" s="13"/>
       <c r="I476" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J476" s="16" t="str">
@@ -25004,7 +24960,7 @@
       <c r="G477" s="13"/>
       <c r="H477" s="13"/>
       <c r="I477" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J477" s="16" t="str">
@@ -25055,7 +25011,7 @@
       <c r="G478" s="13"/>
       <c r="H478" s="13"/>
       <c r="I478" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J478" s="16" t="str">
@@ -25106,7 +25062,7 @@
       <c r="G479" s="13"/>
       <c r="H479" s="13"/>
       <c r="I479" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J479" s="16" t="str">
@@ -25157,7 +25113,7 @@
       <c r="G480" s="13"/>
       <c r="H480" s="13"/>
       <c r="I480" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J480" s="16" t="str">
@@ -25208,7 +25164,7 @@
       <c r="G481" s="13"/>
       <c r="H481" s="13"/>
       <c r="I481" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J481" s="16" t="str">
@@ -25259,7 +25215,7 @@
       <c r="G482" s="13"/>
       <c r="H482" s="13"/>
       <c r="I482" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J482" s="16" t="str">
@@ -25310,7 +25266,7 @@
       <c r="G483" s="13"/>
       <c r="H483" s="13"/>
       <c r="I483" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J483" s="16" t="str">
@@ -25361,7 +25317,7 @@
       <c r="G484" s="13"/>
       <c r="H484" s="13"/>
       <c r="I484" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J484" s="16" t="str">
@@ -25412,7 +25368,7 @@
       <c r="G485" s="13"/>
       <c r="H485" s="13"/>
       <c r="I485" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J485" s="16" t="str">
@@ -25463,7 +25419,7 @@
       <c r="G486" s="13"/>
       <c r="H486" s="13"/>
       <c r="I486" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J486" s="16" t="str">
@@ -25514,7 +25470,7 @@
       <c r="G487" s="13"/>
       <c r="H487" s="13"/>
       <c r="I487" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J487" s="16" t="str">
@@ -25565,7 +25521,7 @@
       <c r="G488" s="13"/>
       <c r="H488" s="13"/>
       <c r="I488" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J488" s="16" t="str">
@@ -25616,7 +25572,7 @@
       <c r="G489" s="13"/>
       <c r="H489" s="13"/>
       <c r="I489" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J489" s="16" t="str">
@@ -25667,7 +25623,7 @@
       <c r="G490" s="13"/>
       <c r="H490" s="13"/>
       <c r="I490" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J490" s="16" t="str">
@@ -25718,7 +25674,7 @@
       <c r="G491" s="13"/>
       <c r="H491" s="13"/>
       <c r="I491" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J491" s="16" t="str">
@@ -25769,7 +25725,7 @@
       <c r="G492" s="13"/>
       <c r="H492" s="13"/>
       <c r="I492" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J492" s="16" t="str">
@@ -25820,7 +25776,7 @@
       <c r="G493" s="13"/>
       <c r="H493" s="13"/>
       <c r="I493" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J493" s="16" t="str">
@@ -25871,7 +25827,7 @@
       <c r="G494" s="13"/>
       <c r="H494" s="13"/>
       <c r="I494" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J494" s="16" t="str">
@@ -25922,7 +25878,7 @@
       <c r="G495" s="13"/>
       <c r="H495" s="13"/>
       <c r="I495" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J495" s="16" t="str">
@@ -25973,7 +25929,7 @@
       <c r="G496" s="13"/>
       <c r="H496" s="13"/>
       <c r="I496" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J496" s="16" t="str">
@@ -26024,7 +25980,7 @@
       <c r="G497" s="13"/>
       <c r="H497" s="13"/>
       <c r="I497" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J497" s="16" t="str">
@@ -26075,7 +26031,7 @@
       <c r="G498" s="13"/>
       <c r="H498" s="13"/>
       <c r="I498" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J498" s="16" t="str">
@@ -26126,7 +26082,7 @@
       <c r="G499" s="13"/>
       <c r="H499" s="13"/>
       <c r="I499" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J499" s="16" t="str">
@@ -26177,7 +26133,7 @@
       <c r="G500" s="13"/>
       <c r="H500" s="13"/>
       <c r="I500" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J500" s="16" t="str">
@@ -26228,7 +26184,7 @@
       <c r="G501" s="13"/>
       <c r="H501" s="13"/>
       <c r="I501" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J501" s="16" t="str">
@@ -26279,7 +26235,7 @@
       <c r="G502" s="13"/>
       <c r="H502" s="13"/>
       <c r="I502" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J502" s="16" t="str">
@@ -26330,7 +26286,7 @@
       <c r="G503" s="13"/>
       <c r="H503" s="13"/>
       <c r="I503" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J503" s="16" t="str">
@@ -26381,7 +26337,7 @@
       <c r="G504" s="13"/>
       <c r="H504" s="13"/>
       <c r="I504" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J504" s="16" t="str">
@@ -26432,7 +26388,7 @@
       <c r="G505" s="13"/>
       <c r="H505" s="13"/>
       <c r="I505" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J505" s="16" t="str">
@@ -26483,7 +26439,7 @@
       <c r="G506" s="13"/>
       <c r="H506" s="13"/>
       <c r="I506" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J506" s="16" t="str">
@@ -26534,7 +26490,7 @@
       <c r="G507" s="13"/>
       <c r="H507" s="13"/>
       <c r="I507" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J507" s="16" t="str">
@@ -26585,7 +26541,7 @@
       <c r="G508" s="13"/>
       <c r="H508" s="13"/>
       <c r="I508" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J508" s="16" t="str">
@@ -26636,7 +26592,7 @@
       <c r="G509" s="13"/>
       <c r="H509" s="13"/>
       <c r="I509" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J509" s="16" t="str">
@@ -26687,7 +26643,7 @@
       <c r="G510" s="13"/>
       <c r="H510" s="13"/>
       <c r="I510" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J510" s="16" t="str">
@@ -26738,7 +26694,7 @@
       <c r="G511" s="13"/>
       <c r="H511" s="13"/>
       <c r="I511" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J511" s="16" t="str">
@@ -26789,7 +26745,7 @@
       <c r="G512" s="13"/>
       <c r="H512" s="13"/>
       <c r="I512" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J512" s="16" t="str">
@@ -26840,7 +26796,7 @@
       <c r="G513" s="13"/>
       <c r="H513" s="13"/>
       <c r="I513" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J513" s="16" t="str">
@@ -26891,7 +26847,7 @@
       <c r="G514" s="13"/>
       <c r="H514" s="13"/>
       <c r="I514" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J514" s="16" t="str">
@@ -26942,7 +26898,7 @@
       <c r="G515" s="13"/>
       <c r="H515" s="13"/>
       <c r="I515" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J515" s="16" t="str">
@@ -26993,7 +26949,7 @@
       <c r="G516" s="13"/>
       <c r="H516" s="13"/>
       <c r="I516" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J516" s="16" t="str">
@@ -27044,7 +27000,7 @@
       <c r="G517" s="13"/>
       <c r="H517" s="13"/>
       <c r="I517" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J517" s="16" t="str">
@@ -27095,7 +27051,7 @@
       <c r="G518" s="13"/>
       <c r="H518" s="13"/>
       <c r="I518" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J518" s="16" t="str">
@@ -27146,7 +27102,7 @@
       <c r="G519" s="13"/>
       <c r="H519" s="13"/>
       <c r="I519" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J519" s="16" t="str">
@@ -27197,7 +27153,7 @@
       <c r="G520" s="13"/>
       <c r="H520" s="13"/>
       <c r="I520" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J520" s="16" t="str">
@@ -27248,7 +27204,7 @@
       <c r="G521" s="13"/>
       <c r="H521" s="13"/>
       <c r="I521" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J521" s="16" t="str">
@@ -27299,7 +27255,7 @@
       <c r="G522" s="13"/>
       <c r="H522" s="13"/>
       <c r="I522" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J522" s="16" t="str">
@@ -27350,7 +27306,7 @@
       <c r="G523" s="13"/>
       <c r="H523" s="13"/>
       <c r="I523" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J523" s="16" t="str">
@@ -27401,7 +27357,7 @@
       <c r="G524" s="13"/>
       <c r="H524" s="13"/>
       <c r="I524" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J524" s="16" t="str">
@@ -27452,7 +27408,7 @@
       <c r="G525" s="13"/>
       <c r="H525" s="13"/>
       <c r="I525" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J525" s="16" t="str">
@@ -27503,7 +27459,7 @@
       <c r="G526" s="13"/>
       <c r="H526" s="13"/>
       <c r="I526" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J526" s="16" t="str">
@@ -27554,7 +27510,7 @@
       <c r="G527" s="13"/>
       <c r="H527" s="13"/>
       <c r="I527" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J527" s="16" t="str">
@@ -27605,7 +27561,7 @@
       <c r="G528" s="13"/>
       <c r="H528" s="13"/>
       <c r="I528" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J528" s="16" t="str">
@@ -27656,7 +27612,7 @@
       <c r="G529" s="13"/>
       <c r="H529" s="13"/>
       <c r="I529" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J529" s="16" t="str">
@@ -27707,7 +27663,7 @@
       <c r="G530" s="13"/>
       <c r="H530" s="13"/>
       <c r="I530" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J530" s="16" t="str">
@@ -27758,7 +27714,7 @@
       <c r="G531" s="13"/>
       <c r="H531" s="13"/>
       <c r="I531" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J531" s="16" t="str">
@@ -27809,7 +27765,7 @@
       <c r="G532" s="13"/>
       <c r="H532" s="13"/>
       <c r="I532" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J532" s="16" t="str">
@@ -27860,7 +27816,7 @@
       <c r="G533" s="13"/>
       <c r="H533" s="13"/>
       <c r="I533" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J533" s="16" t="str">
@@ -27911,7 +27867,7 @@
       <c r="G534" s="13"/>
       <c r="H534" s="13"/>
       <c r="I534" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J534" s="16" t="str">
@@ -27962,7 +27918,7 @@
       <c r="G535" s="13"/>
       <c r="H535" s="13"/>
       <c r="I535" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J535" s="16" t="str">
@@ -28013,7 +27969,7 @@
       <c r="G536" s="13"/>
       <c r="H536" s="13"/>
       <c r="I536" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J536" s="16" t="str">
@@ -28064,7 +28020,7 @@
       <c r="G537" s="13"/>
       <c r="H537" s="13"/>
       <c r="I537" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J537" s="16" t="str">
@@ -28115,7 +28071,7 @@
       <c r="G538" s="13"/>
       <c r="H538" s="13"/>
       <c r="I538" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J538" s="16" t="str">
@@ -28166,7 +28122,7 @@
       <c r="G539" s="13"/>
       <c r="H539" s="13"/>
       <c r="I539" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J539" s="16" t="str">
@@ -28217,7 +28173,7 @@
       <c r="G540" s="13"/>
       <c r="H540" s="13"/>
       <c r="I540" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J540" s="16" t="str">
@@ -28268,7 +28224,7 @@
       <c r="G541" s="13"/>
       <c r="H541" s="13"/>
       <c r="I541" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J541" s="16" t="str">
@@ -28319,7 +28275,7 @@
       <c r="G542" s="13"/>
       <c r="H542" s="13"/>
       <c r="I542" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J542" s="16" t="str">
@@ -28370,7 +28326,7 @@
       <c r="G543" s="13"/>
       <c r="H543" s="13"/>
       <c r="I543" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J543" s="16" t="str">
@@ -28421,7 +28377,7 @@
       <c r="G544" s="13"/>
       <c r="H544" s="13"/>
       <c r="I544" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J544" s="16" t="str">
@@ -28472,7 +28428,7 @@
       <c r="G545" s="13"/>
       <c r="H545" s="13"/>
       <c r="I545" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J545" s="16" t="str">
@@ -28523,7 +28479,7 @@
       <c r="G546" s="13"/>
       <c r="H546" s="13"/>
       <c r="I546" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J546" s="16" t="str">
@@ -28574,7 +28530,7 @@
       <c r="G547" s="13"/>
       <c r="H547" s="13"/>
       <c r="I547" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J547" s="16" t="str">
@@ -28625,7 +28581,7 @@
       <c r="G548" s="13"/>
       <c r="H548" s="13"/>
       <c r="I548" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J548" s="16" t="str">
@@ -28676,7 +28632,7 @@
       <c r="G549" s="13"/>
       <c r="H549" s="13"/>
       <c r="I549" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J549" s="16" t="str">
@@ -28727,7 +28683,7 @@
       <c r="G550" s="13"/>
       <c r="H550" s="13"/>
       <c r="I550" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J550" s="16" t="str">
@@ -28778,7 +28734,7 @@
       <c r="G551" s="13"/>
       <c r="H551" s="13"/>
       <c r="I551" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J551" s="16" t="str">
@@ -28829,7 +28785,7 @@
       <c r="G552" s="13"/>
       <c r="H552" s="13"/>
       <c r="I552" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J552" s="16" t="str">
@@ -28880,7 +28836,7 @@
       <c r="G553" s="13"/>
       <c r="H553" s="13"/>
       <c r="I553" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J553" s="16" t="str">
@@ -28931,7 +28887,7 @@
       <c r="G554" s="13"/>
       <c r="H554" s="13"/>
       <c r="I554" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J554" s="16" t="str">
@@ -28982,7 +28938,7 @@
       <c r="G555" s="13"/>
       <c r="H555" s="13"/>
       <c r="I555" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J555" s="16" t="str">
@@ -29033,7 +28989,7 @@
       <c r="G556" s="13"/>
       <c r="H556" s="13"/>
       <c r="I556" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J556" s="16" t="str">
@@ -29084,7 +29040,7 @@
       <c r="G557" s="13"/>
       <c r="H557" s="13"/>
       <c r="I557" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J557" s="16" t="str">
@@ -29135,7 +29091,7 @@
       <c r="G558" s="13"/>
       <c r="H558" s="13"/>
       <c r="I558" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J558" s="16" t="str">
@@ -29186,7 +29142,7 @@
       <c r="G559" s="13"/>
       <c r="H559" s="13"/>
       <c r="I559" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J559" s="16" t="str">
@@ -29237,7 +29193,7 @@
       <c r="G560" s="13"/>
       <c r="H560" s="13"/>
       <c r="I560" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J560" s="16" t="str">
@@ -29288,7 +29244,7 @@
       <c r="G561" s="13"/>
       <c r="H561" s="13"/>
       <c r="I561" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J561" s="16" t="str">
@@ -29339,7 +29295,7 @@
       <c r="G562" s="13"/>
       <c r="H562" s="13"/>
       <c r="I562" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J562" s="16" t="str">
@@ -29390,7 +29346,7 @@
       <c r="G563" s="13"/>
       <c r="H563" s="13"/>
       <c r="I563" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J563" s="16" t="str">
@@ -29441,7 +29397,7 @@
       <c r="G564" s="13"/>
       <c r="H564" s="13"/>
       <c r="I564" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J564" s="16" t="str">
@@ -29492,7 +29448,7 @@
       <c r="G565" s="13"/>
       <c r="H565" s="13"/>
       <c r="I565" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J565" s="16" t="str">
@@ -29543,7 +29499,7 @@
       <c r="G566" s="13"/>
       <c r="H566" s="13"/>
       <c r="I566" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J566" s="16" t="str">
@@ -29594,7 +29550,7 @@
       <c r="G567" s="13"/>
       <c r="H567" s="13"/>
       <c r="I567" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J567" s="16" t="str">
@@ -29645,7 +29601,7 @@
       <c r="G568" s="13"/>
       <c r="H568" s="13"/>
       <c r="I568" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J568" s="16" t="str">
@@ -29696,7 +29652,7 @@
       <c r="G569" s="13"/>
       <c r="H569" s="13"/>
       <c r="I569" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J569" s="16" t="str">
@@ -29747,7 +29703,7 @@
       <c r="G570" s="13"/>
       <c r="H570" s="13"/>
       <c r="I570" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J570" s="16" t="str">
@@ -29798,7 +29754,7 @@
       <c r="G571" s="13"/>
       <c r="H571" s="13"/>
       <c r="I571" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J571" s="16" t="str">
@@ -29849,7 +29805,7 @@
       <c r="G572" s="13"/>
       <c r="H572" s="13"/>
       <c r="I572" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J572" s="16" t="str">
@@ -29900,7 +29856,7 @@
       <c r="G573" s="13"/>
       <c r="H573" s="13"/>
       <c r="I573" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J573" s="16" t="str">
@@ -29951,7 +29907,7 @@
       <c r="G574" s="13"/>
       <c r="H574" s="13"/>
       <c r="I574" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J574" s="16" t="str">
@@ -30002,7 +29958,7 @@
       <c r="G575" s="13"/>
       <c r="H575" s="13"/>
       <c r="I575" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J575" s="16" t="str">
@@ -30053,7 +30009,7 @@
       <c r="G576" s="13"/>
       <c r="H576" s="13"/>
       <c r="I576" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J576" s="16" t="str">
@@ -30104,7 +30060,7 @@
       <c r="G577" s="13"/>
       <c r="H577" s="13"/>
       <c r="I577" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J577" s="16" t="str">
@@ -30155,7 +30111,7 @@
       <c r="G578" s="13"/>
       <c r="H578" s="13"/>
       <c r="I578" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J578" s="16" t="str">
@@ -30206,7 +30162,7 @@
       <c r="G579" s="13"/>
       <c r="H579" s="13"/>
       <c r="I579" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J579" s="16" t="str">
@@ -30257,7 +30213,7 @@
       <c r="G580" s="13"/>
       <c r="H580" s="13"/>
       <c r="I580" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J580" s="16" t="str">
@@ -30308,7 +30264,7 @@
       <c r="G581" s="13"/>
       <c r="H581" s="13"/>
       <c r="I581" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J581" s="16" t="str">
@@ -30359,7 +30315,7 @@
       <c r="G582" s="13"/>
       <c r="H582" s="13"/>
       <c r="I582" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J582" s="16" t="str">
@@ -30410,7 +30366,7 @@
       <c r="G583" s="13"/>
       <c r="H583" s="13"/>
       <c r="I583" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J583" s="16" t="str">
@@ -30461,7 +30417,7 @@
       <c r="G584" s="13"/>
       <c r="H584" s="13"/>
       <c r="I584" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J584" s="16" t="str">
@@ -30512,7 +30468,7 @@
       <c r="G585" s="13"/>
       <c r="H585" s="13"/>
       <c r="I585" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J585" s="16" t="str">
@@ -30563,7 +30519,7 @@
       <c r="G586" s="13"/>
       <c r="H586" s="13"/>
       <c r="I586" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J586" s="16" t="str">
@@ -30614,7 +30570,7 @@
       <c r="G587" s="13"/>
       <c r="H587" s="13"/>
       <c r="I587" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J587" s="16" t="str">
@@ -30665,7 +30621,7 @@
       <c r="G588" s="13"/>
       <c r="H588" s="13"/>
       <c r="I588" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J588" s="16" t="str">
@@ -30716,7 +30672,7 @@
       <c r="G589" s="13"/>
       <c r="H589" s="13"/>
       <c r="I589" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J589" s="16" t="str">
@@ -30767,7 +30723,7 @@
       <c r="G590" s="13"/>
       <c r="H590" s="13"/>
       <c r="I590" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J590" s="16" t="str">
@@ -30818,7 +30774,7 @@
       <c r="G591" s="13"/>
       <c r="H591" s="13"/>
       <c r="I591" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J591" s="16" t="str">
@@ -30869,7 +30825,7 @@
       <c r="G592" s="13"/>
       <c r="H592" s="13"/>
       <c r="I592" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J592" s="16" t="str">
@@ -30920,7 +30876,7 @@
       <c r="G593" s="13"/>
       <c r="H593" s="13"/>
       <c r="I593" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J593" s="16" t="str">
@@ -30971,7 +30927,7 @@
       <c r="G594" s="13"/>
       <c r="H594" s="13"/>
       <c r="I594" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J594" s="16" t="str">
@@ -31022,7 +30978,7 @@
       <c r="G595" s="13"/>
       <c r="H595" s="13"/>
       <c r="I595" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J595" s="16" t="str">
@@ -31073,7 +31029,7 @@
       <c r="G596" s="13"/>
       <c r="H596" s="13"/>
       <c r="I596" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J596" s="16" t="str">
@@ -31124,7 +31080,7 @@
       <c r="G597" s="13"/>
       <c r="H597" s="13"/>
       <c r="I597" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J597" s="16" t="str">
@@ -31175,7 +31131,7 @@
       <c r="G598" s="13"/>
       <c r="H598" s="13"/>
       <c r="I598" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J598" s="16" t="str">
@@ -31226,7 +31182,7 @@
       <c r="G599" s="13"/>
       <c r="H599" s="13"/>
       <c r="I599" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J599" s="16" t="str">
@@ -31277,7 +31233,7 @@
       <c r="G600" s="13"/>
       <c r="H600" s="13"/>
       <c r="I600" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J600" s="16" t="str">
@@ -31328,7 +31284,7 @@
       <c r="G601" s="13"/>
       <c r="H601" s="13"/>
       <c r="I601" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J601" s="16" t="str">
@@ -31379,7 +31335,7 @@
       <c r="G602" s="13"/>
       <c r="H602" s="13"/>
       <c r="I602" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J602" s="16" t="str">
@@ -31430,7 +31386,7 @@
       <c r="G603" s="13"/>
       <c r="H603" s="13"/>
       <c r="I603" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J603" s="16" t="str">
@@ -31481,7 +31437,7 @@
       <c r="G604" s="13"/>
       <c r="H604" s="13"/>
       <c r="I604" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J604" s="16" t="str">
@@ -31532,7 +31488,7 @@
       <c r="G605" s="13"/>
       <c r="H605" s="13"/>
       <c r="I605" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J605" s="16" t="str">
@@ -31583,7 +31539,7 @@
       <c r="G606" s="13"/>
       <c r="H606" s="13"/>
       <c r="I606" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J606" s="16" t="str">
@@ -31634,7 +31590,7 @@
       <c r="G607" s="13"/>
       <c r="H607" s="13"/>
       <c r="I607" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J607" s="16" t="str">
@@ -31685,7 +31641,7 @@
       <c r="G608" s="13"/>
       <c r="H608" s="13"/>
       <c r="I608" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J608" s="16" t="str">
@@ -31736,7 +31692,7 @@
       <c r="G609" s="13"/>
       <c r="H609" s="13"/>
       <c r="I609" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J609" s="16" t="str">
@@ -31787,7 +31743,7 @@
       <c r="G610" s="13"/>
       <c r="H610" s="13"/>
       <c r="I610" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J610" s="16" t="str">
@@ -31838,7 +31794,7 @@
       <c r="G611" s="13"/>
       <c r="H611" s="13"/>
       <c r="I611" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J611" s="16" t="str">
@@ -31889,7 +31845,7 @@
       <c r="G612" s="13"/>
       <c r="H612" s="13"/>
       <c r="I612" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J612" s="16" t="str">
@@ -31940,7 +31896,7 @@
       <c r="G613" s="13"/>
       <c r="H613" s="13"/>
       <c r="I613" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J613" s="16" t="str">
@@ -31991,7 +31947,7 @@
       <c r="G614" s="13"/>
       <c r="H614" s="13"/>
       <c r="I614" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J614" s="16" t="str">
@@ -32042,7 +31998,7 @@
       <c r="G615" s="13"/>
       <c r="H615" s="13"/>
       <c r="I615" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J615" s="16" t="str">
@@ -32093,7 +32049,7 @@
       <c r="G616" s="13"/>
       <c r="H616" s="13"/>
       <c r="I616" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J616" s="16" t="str">
@@ -32144,7 +32100,7 @@
       <c r="G617" s="13"/>
       <c r="H617" s="13"/>
       <c r="I617" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J617" s="16" t="str">
@@ -32195,7 +32151,7 @@
       <c r="G618" s="13"/>
       <c r="H618" s="13"/>
       <c r="I618" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J618" s="16" t="str">
@@ -32246,7 +32202,7 @@
       <c r="G619" s="13"/>
       <c r="H619" s="13"/>
       <c r="I619" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J619" s="16" t="str">
@@ -32297,7 +32253,7 @@
       <c r="G620" s="13"/>
       <c r="H620" s="13"/>
       <c r="I620" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J620" s="16" t="str">
@@ -32348,7 +32304,7 @@
       <c r="G621" s="13"/>
       <c r="H621" s="13"/>
       <c r="I621" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J621" s="16" t="str">
@@ -32399,7 +32355,7 @@
       <c r="G622" s="13"/>
       <c r="H622" s="13"/>
       <c r="I622" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J622" s="16" t="str">
@@ -32450,7 +32406,7 @@
       <c r="G623" s="13"/>
       <c r="H623" s="13"/>
       <c r="I623" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J623" s="16" t="str">
@@ -32501,7 +32457,7 @@
       <c r="G624" s="13"/>
       <c r="H624" s="13"/>
       <c r="I624" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J624" s="16" t="str">
@@ -32552,7 +32508,7 @@
       <c r="G625" s="13"/>
       <c r="H625" s="13"/>
       <c r="I625" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J625" s="16" t="str">
@@ -32603,7 +32559,7 @@
       <c r="G626" s="13"/>
       <c r="H626" s="13"/>
       <c r="I626" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J626" s="16" t="str">
@@ -32654,7 +32610,7 @@
       <c r="G627" s="13"/>
       <c r="H627" s="13"/>
       <c r="I627" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J627" s="16" t="str">
@@ -32705,7 +32661,7 @@
       <c r="G628" s="13"/>
       <c r="H628" s="13"/>
       <c r="I628" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J628" s="16" t="str">
@@ -32756,7 +32712,7 @@
       <c r="G629" s="13"/>
       <c r="H629" s="13"/>
       <c r="I629" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J629" s="16" t="str">
@@ -32807,7 +32763,7 @@
       <c r="G630" s="13"/>
       <c r="H630" s="13"/>
       <c r="I630" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J630" s="16" t="str">
@@ -32858,7 +32814,7 @@
       <c r="G631" s="13"/>
       <c r="H631" s="13"/>
       <c r="I631" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J631" s="16" t="str">
@@ -32909,7 +32865,7 @@
       <c r="G632" s="13"/>
       <c r="H632" s="13"/>
       <c r="I632" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J632" s="16" t="str">
@@ -32960,7 +32916,7 @@
       <c r="G633" s="13"/>
       <c r="H633" s="13"/>
       <c r="I633" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J633" s="16" t="str">
@@ -33011,7 +32967,7 @@
       <c r="G634" s="13"/>
       <c r="H634" s="13"/>
       <c r="I634" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J634" s="16" t="str">
@@ -33062,7 +33018,7 @@
       <c r="G635" s="13"/>
       <c r="H635" s="13"/>
       <c r="I635" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J635" s="16" t="str">
@@ -33113,7 +33069,7 @@
       <c r="G636" s="13"/>
       <c r="H636" s="13"/>
       <c r="I636" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J636" s="16" t="str">
@@ -33164,7 +33120,7 @@
       <c r="G637" s="13"/>
       <c r="H637" s="13"/>
       <c r="I637" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J637" s="16" t="str">
@@ -33215,7 +33171,7 @@
       <c r="G638" s="13"/>
       <c r="H638" s="13"/>
       <c r="I638" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J638" s="16" t="str">
@@ -33266,7 +33222,7 @@
       <c r="G639" s="13"/>
       <c r="H639" s="13"/>
       <c r="I639" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J639" s="16" t="str">
@@ -33317,7 +33273,7 @@
       <c r="G640" s="13"/>
       <c r="H640" s="13"/>
       <c r="I640" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J640" s="16" t="str">
@@ -33368,7 +33324,7 @@
       <c r="G641" s="13"/>
       <c r="H641" s="13"/>
       <c r="I641" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J641" s="16" t="str">
@@ -33419,7 +33375,7 @@
       <c r="G642" s="13"/>
       <c r="H642" s="13"/>
       <c r="I642" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J642" s="16" t="str">
@@ -33470,7 +33426,7 @@
       <c r="G643" s="13"/>
       <c r="H643" s="13"/>
       <c r="I643" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J643" s="16" t="str">
@@ -33521,7 +33477,7 @@
       <c r="G644" s="13"/>
       <c r="H644" s="13"/>
       <c r="I644" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J644" s="16" t="str">
@@ -33572,7 +33528,7 @@
       <c r="G645" s="13"/>
       <c r="H645" s="13"/>
       <c r="I645" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J645" s="16" t="str">
@@ -33623,7 +33579,7 @@
       <c r="G646" s="13"/>
       <c r="H646" s="13"/>
       <c r="I646" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J646" s="16" t="str">
@@ -33674,7 +33630,7 @@
       <c r="G647" s="13"/>
       <c r="H647" s="13"/>
       <c r="I647" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J647" s="16" t="str">
@@ -33725,7 +33681,7 @@
       <c r="G648" s="13"/>
       <c r="H648" s="13"/>
       <c r="I648" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J648" s="16" t="str">
@@ -33776,7 +33732,7 @@
       <c r="G649" s="13"/>
       <c r="H649" s="13"/>
       <c r="I649" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J649" s="16" t="str">
@@ -33827,7 +33783,7 @@
       <c r="G650" s="13"/>
       <c r="H650" s="13"/>
       <c r="I650" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J650" s="16" t="str">
@@ -33878,7 +33834,7 @@
       <c r="G651" s="13"/>
       <c r="H651" s="13"/>
       <c r="I651" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J651" s="16" t="str">
@@ -33929,7 +33885,7 @@
       <c r="G652" s="13"/>
       <c r="H652" s="13"/>
       <c r="I652" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J652" s="16" t="str">
@@ -33980,7 +33936,7 @@
       <c r="G653" s="13"/>
       <c r="H653" s="13"/>
       <c r="I653" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J653" s="16" t="str">
@@ -34031,7 +33987,7 @@
       <c r="G654" s="13"/>
       <c r="H654" s="13"/>
       <c r="I654" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J654" s="16" t="str">
@@ -34082,7 +34038,7 @@
       <c r="G655" s="13"/>
       <c r="H655" s="13"/>
       <c r="I655" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J655" s="16" t="str">
@@ -34133,7 +34089,7 @@
       <c r="G656" s="13"/>
       <c r="H656" s="13"/>
       <c r="I656" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J656" s="16" t="str">
@@ -34184,7 +34140,7 @@
       <c r="G657" s="13"/>
       <c r="H657" s="13"/>
       <c r="I657" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J657" s="16" t="str">
@@ -34235,7 +34191,7 @@
       <c r="G658" s="13"/>
       <c r="H658" s="13"/>
       <c r="I658" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J658" s="16" t="str">
@@ -34286,7 +34242,7 @@
       <c r="G659" s="13"/>
       <c r="H659" s="13"/>
       <c r="I659" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J659" s="16" t="str">
@@ -34337,7 +34293,7 @@
       <c r="G660" s="13"/>
       <c r="H660" s="13"/>
       <c r="I660" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J660" s="16" t="str">
@@ -34388,7 +34344,7 @@
       <c r="G661" s="13"/>
       <c r="H661" s="13"/>
       <c r="I661" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J661" s="16" t="str">
@@ -34439,7 +34395,7 @@
       <c r="G662" s="13"/>
       <c r="H662" s="13"/>
       <c r="I662" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J662" s="16" t="str">
@@ -34490,7 +34446,7 @@
       <c r="G663" s="13"/>
       <c r="H663" s="13"/>
       <c r="I663" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J663" s="16" t="str">
@@ -34541,7 +34497,7 @@
       <c r="G664" s="13"/>
       <c r="H664" s="13"/>
       <c r="I664" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J664" s="16" t="str">
@@ -34592,7 +34548,7 @@
       <c r="G665" s="13"/>
       <c r="H665" s="13"/>
       <c r="I665" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J665" s="16" t="str">
@@ -34643,7 +34599,7 @@
       <c r="G666" s="13"/>
       <c r="H666" s="13"/>
       <c r="I666" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J666" s="16" t="str">
@@ -34694,7 +34650,7 @@
       <c r="G667" s="13"/>
       <c r="H667" s="13"/>
       <c r="I667" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J667" s="16" t="str">
@@ -34745,7 +34701,7 @@
       <c r="G668" s="13"/>
       <c r="H668" s="13"/>
       <c r="I668" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J668" s="16" t="str">
@@ -34796,7 +34752,7 @@
       <c r="G669" s="13"/>
       <c r="H669" s="13"/>
       <c r="I669" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J669" s="16" t="str">
@@ -34847,7 +34803,7 @@
       <c r="G670" s="13"/>
       <c r="H670" s="13"/>
       <c r="I670" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J670" s="16" t="str">
@@ -34898,7 +34854,7 @@
       <c r="G671" s="13"/>
       <c r="H671" s="13"/>
       <c r="I671" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J671" s="16" t="str">
@@ -34949,7 +34905,7 @@
       <c r="G672" s="13"/>
       <c r="H672" s="13"/>
       <c r="I672" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J672" s="16" t="str">
@@ -35000,7 +34956,7 @@
       <c r="G673" s="13"/>
       <c r="H673" s="13"/>
       <c r="I673" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J673" s="16" t="str">
@@ -35051,7 +35007,7 @@
       <c r="G674" s="13"/>
       <c r="H674" s="13"/>
       <c r="I674" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J674" s="16" t="str">
@@ -35102,7 +35058,7 @@
       <c r="G675" s="13"/>
       <c r="H675" s="13"/>
       <c r="I675" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J675" s="16" t="str">
@@ -35153,7 +35109,7 @@
       <c r="G676" s="13"/>
       <c r="H676" s="13"/>
       <c r="I676" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J676" s="16" t="str">
@@ -35204,7 +35160,7 @@
       <c r="G677" s="13"/>
       <c r="H677" s="13"/>
       <c r="I677" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J677" s="16" t="str">
@@ -35255,7 +35211,7 @@
       <c r="G678" s="13"/>
       <c r="H678" s="13"/>
       <c r="I678" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J678" s="16" t="str">
@@ -35306,7 +35262,7 @@
       <c r="G679" s="13"/>
       <c r="H679" s="13"/>
       <c r="I679" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J679" s="16" t="str">
@@ -35357,7 +35313,7 @@
       <c r="G680" s="13"/>
       <c r="H680" s="13"/>
       <c r="I680" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J680" s="16" t="str">
@@ -35408,7 +35364,7 @@
       <c r="G681" s="13"/>
       <c r="H681" s="13"/>
       <c r="I681" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J681" s="16" t="str">
@@ -35459,7 +35415,7 @@
       <c r="G682" s="13"/>
       <c r="H682" s="13"/>
       <c r="I682" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J682" s="16" t="str">
@@ -35510,7 +35466,7 @@
       <c r="G683" s="13"/>
       <c r="H683" s="13"/>
       <c r="I683" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J683" s="16" t="str">
@@ -35561,7 +35517,7 @@
       <c r="G684" s="13"/>
       <c r="H684" s="13"/>
       <c r="I684" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J684" s="16" t="str">
@@ -35612,7 +35568,7 @@
       <c r="G685" s="13"/>
       <c r="H685" s="13"/>
       <c r="I685" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J685" s="16" t="str">
@@ -35663,7 +35619,7 @@
       <c r="G686" s="13"/>
       <c r="H686" s="13"/>
       <c r="I686" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J686" s="16" t="str">
@@ -35714,7 +35670,7 @@
       <c r="G687" s="13"/>
       <c r="H687" s="13"/>
       <c r="I687" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J687" s="16" t="str">
@@ -35765,7 +35721,7 @@
       <c r="G688" s="13"/>
       <c r="H688" s="13"/>
       <c r="I688" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J688" s="16" t="str">
@@ -35816,7 +35772,7 @@
       <c r="G689" s="13"/>
       <c r="H689" s="13"/>
       <c r="I689" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J689" s="16" t="str">
@@ -35867,7 +35823,7 @@
       <c r="G690" s="13"/>
       <c r="H690" s="13"/>
       <c r="I690" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J690" s="16" t="str">
@@ -35918,7 +35874,7 @@
       <c r="G691" s="13"/>
       <c r="H691" s="13"/>
       <c r="I691" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J691" s="16" t="str">
@@ -35969,7 +35925,7 @@
       <c r="G692" s="13"/>
       <c r="H692" s="13"/>
       <c r="I692" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J692" s="16" t="str">
@@ -36020,7 +35976,7 @@
       <c r="G693" s="13"/>
       <c r="H693" s="13"/>
       <c r="I693" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J693" s="16" t="str">
@@ -36071,7 +36027,7 @@
       <c r="G694" s="13"/>
       <c r="H694" s="13"/>
       <c r="I694" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J694" s="16" t="str">
@@ -36122,7 +36078,7 @@
       <c r="G695" s="13"/>
       <c r="H695" s="13"/>
       <c r="I695" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J695" s="16" t="str">
@@ -36173,7 +36129,7 @@
       <c r="G696" s="13"/>
       <c r="H696" s="13"/>
       <c r="I696" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J696" s="16" t="str">
@@ -36224,7 +36180,7 @@
       <c r="G697" s="13"/>
       <c r="H697" s="13"/>
       <c r="I697" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J697" s="16" t="str">
@@ -36275,7 +36231,7 @@
       <c r="G698" s="13"/>
       <c r="H698" s="13"/>
       <c r="I698" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J698" s="16" t="str">
@@ -36326,7 +36282,7 @@
       <c r="G699" s="13"/>
       <c r="H699" s="13"/>
       <c r="I699" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J699" s="16" t="str">
@@ -36377,7 +36333,7 @@
       <c r="G700" s="13"/>
       <c r="H700" s="13"/>
       <c r="I700" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J700" s="16" t="str">
@@ -36428,7 +36384,7 @@
       <c r="G701" s="13"/>
       <c r="H701" s="13"/>
       <c r="I701" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J701" s="16" t="str">
@@ -36479,7 +36435,7 @@
       <c r="G702" s="13"/>
       <c r="H702" s="13"/>
       <c r="I702" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J702" s="16" t="str">
@@ -36530,7 +36486,7 @@
       <c r="G703" s="13"/>
       <c r="H703" s="13"/>
       <c r="I703" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J703" s="16" t="str">
@@ -36581,7 +36537,7 @@
       <c r="G704" s="13"/>
       <c r="H704" s="13"/>
       <c r="I704" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J704" s="16" t="str">
@@ -36632,7 +36588,7 @@
       <c r="G705" s="13"/>
       <c r="H705" s="13"/>
       <c r="I705" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J705" s="16" t="str">
@@ -36683,7 +36639,7 @@
       <c r="G706" s="13"/>
       <c r="H706" s="13"/>
       <c r="I706" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J706" s="16" t="str">
@@ -36734,7 +36690,7 @@
       <c r="G707" s="13"/>
       <c r="H707" s="13"/>
       <c r="I707" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J707" s="16" t="str">
@@ -36785,7 +36741,7 @@
       <c r="G708" s="13"/>
       <c r="H708" s="13"/>
       <c r="I708" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J708" s="16" t="str">
@@ -36836,7 +36792,7 @@
       <c r="G709" s="13"/>
       <c r="H709" s="13"/>
       <c r="I709" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J709" s="16" t="str">
@@ -36887,7 +36843,7 @@
       <c r="G710" s="13"/>
       <c r="H710" s="13"/>
       <c r="I710" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J710" s="16" t="str">
@@ -36938,7 +36894,7 @@
       <c r="G711" s="13"/>
       <c r="H711" s="13"/>
       <c r="I711" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J711" s="16" t="str">
@@ -36989,7 +36945,7 @@
       <c r="G712" s="13"/>
       <c r="H712" s="13"/>
       <c r="I712" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J712" s="16" t="str">
@@ -37040,7 +36996,7 @@
       <c r="G713" s="13"/>
       <c r="H713" s="13"/>
       <c r="I713" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J713" s="16" t="str">
@@ -37091,7 +37047,7 @@
       <c r="G714" s="13"/>
       <c r="H714" s="13"/>
       <c r="I714" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J714" s="16" t="str">
@@ -37142,7 +37098,7 @@
       <c r="G715" s="13"/>
       <c r="H715" s="13"/>
       <c r="I715" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J715" s="16" t="str">
@@ -37193,7 +37149,7 @@
       <c r="G716" s="13"/>
       <c r="H716" s="13"/>
       <c r="I716" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J716" s="16" t="str">
@@ -37244,7 +37200,7 @@
       <c r="G717" s="13"/>
       <c r="H717" s="13"/>
       <c r="I717" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J717" s="16" t="str">
@@ -37295,7 +37251,7 @@
       <c r="G718" s="13"/>
       <c r="H718" s="13"/>
       <c r="I718" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J718" s="16" t="str">
@@ -37346,7 +37302,7 @@
       <c r="G719" s="13"/>
       <c r="H719" s="13"/>
       <c r="I719" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J719" s="16" t="str">
@@ -37397,7 +37353,7 @@
       <c r="G720" s="13"/>
       <c r="H720" s="13"/>
       <c r="I720" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J720" s="16" t="str">
@@ -37448,7 +37404,7 @@
       <c r="G721" s="13"/>
       <c r="H721" s="13"/>
       <c r="I721" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J721" s="16" t="str">
@@ -37499,7 +37455,7 @@
       <c r="G722" s="13"/>
       <c r="H722" s="13"/>
       <c r="I722" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J722" s="16" t="str">
@@ -37550,7 +37506,7 @@
       <c r="G723" s="13"/>
       <c r="H723" s="13"/>
       <c r="I723" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J723" s="16" t="str">
@@ -37601,7 +37557,7 @@
       <c r="G724" s="13"/>
       <c r="H724" s="13"/>
       <c r="I724" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J724" s="16" t="str">
@@ -37652,7 +37608,7 @@
       <c r="G725" s="13"/>
       <c r="H725" s="13"/>
       <c r="I725" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J725" s="16" t="str">
@@ -37703,7 +37659,7 @@
       <c r="G726" s="13"/>
       <c r="H726" s="13"/>
       <c r="I726" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J726" s="16" t="str">
@@ -37754,7 +37710,7 @@
       <c r="G727" s="13"/>
       <c r="H727" s="13"/>
       <c r="I727" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J727" s="16" t="str">
@@ -37805,7 +37761,7 @@
       <c r="G728" s="13"/>
       <c r="H728" s="13"/>
       <c r="I728" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J728" s="16" t="str">
@@ -37856,7 +37812,7 @@
       <c r="G729" s="13"/>
       <c r="H729" s="13"/>
       <c r="I729" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J729" s="16" t="str">
@@ -37907,7 +37863,7 @@
       <c r="G730" s="13"/>
       <c r="H730" s="13"/>
       <c r="I730" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J730" s="16" t="str">
@@ -37958,7 +37914,7 @@
       <c r="G731" s="13"/>
       <c r="H731" s="13"/>
       <c r="I731" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J731" s="16" t="str">
@@ -38009,7 +37965,7 @@
       <c r="G732" s="13"/>
       <c r="H732" s="13"/>
       <c r="I732" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J732" s="16" t="str">
@@ -38060,7 +38016,7 @@
       <c r="G733" s="13"/>
       <c r="H733" s="13"/>
       <c r="I733" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J733" s="16" t="str">
@@ -38111,7 +38067,7 @@
       <c r="G734" s="13"/>
       <c r="H734" s="13"/>
       <c r="I734" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J734" s="16" t="str">
@@ -38162,7 +38118,7 @@
       <c r="G735" s="13"/>
       <c r="H735" s="13"/>
       <c r="I735" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J735" s="16" t="str">
@@ -38213,7 +38169,7 @@
       <c r="G736" s="13"/>
       <c r="H736" s="13"/>
       <c r="I736" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J736" s="16" t="str">
@@ -38264,7 +38220,7 @@
       <c r="G737" s="13"/>
       <c r="H737" s="13"/>
       <c r="I737" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J737" s="16" t="str">
@@ -38315,7 +38271,7 @@
       <c r="G738" s="13"/>
       <c r="H738" s="13"/>
       <c r="I738" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J738" s="16" t="str">
@@ -38366,7 +38322,7 @@
       <c r="G739" s="13"/>
       <c r="H739" s="13"/>
       <c r="I739" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J739" s="16" t="str">
@@ -38417,7 +38373,7 @@
       <c r="G740" s="13"/>
       <c r="H740" s="13"/>
       <c r="I740" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J740" s="16" t="str">
@@ -38468,7 +38424,7 @@
       <c r="G741" s="13"/>
       <c r="H741" s="13"/>
       <c r="I741" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J741" s="16" t="str">
@@ -38519,7 +38475,7 @@
       <c r="G742" s="13"/>
       <c r="H742" s="13"/>
       <c r="I742" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J742" s="16" t="str">
@@ -38570,7 +38526,7 @@
       <c r="G743" s="13"/>
       <c r="H743" s="13"/>
       <c r="I743" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J743" s="16" t="str">
@@ -38621,7 +38577,7 @@
       <c r="G744" s="13"/>
       <c r="H744" s="13"/>
       <c r="I744" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J744" s="16" t="str">
@@ -38672,7 +38628,7 @@
       <c r="G745" s="13"/>
       <c r="H745" s="13"/>
       <c r="I745" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J745" s="16" t="str">
@@ -38723,7 +38679,7 @@
       <c r="G746" s="13"/>
       <c r="H746" s="13"/>
       <c r="I746" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J746" s="16" t="str">
@@ -38774,7 +38730,7 @@
       <c r="G747" s="13"/>
       <c r="H747" s="13"/>
       <c r="I747" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J747" s="16" t="str">
@@ -38825,7 +38781,7 @@
       <c r="G748" s="13"/>
       <c r="H748" s="13"/>
       <c r="I748" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J748" s="16" t="str">
@@ -38876,7 +38832,7 @@
       <c r="G749" s="13"/>
       <c r="H749" s="13"/>
       <c r="I749" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J749" s="16" t="str">
@@ -38927,7 +38883,7 @@
       <c r="G750" s="13"/>
       <c r="H750" s="13"/>
       <c r="I750" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J750" s="16" t="str">
@@ -38978,7 +38934,7 @@
       <c r="G751" s="13"/>
       <c r="H751" s="13"/>
       <c r="I751" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J751" s="16" t="str">
@@ -39029,7 +38985,7 @@
       <c r="G752" s="13"/>
       <c r="H752" s="13"/>
       <c r="I752" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J752" s="16" t="str">
@@ -39080,7 +39036,7 @@
       <c r="G753" s="13"/>
       <c r="H753" s="13"/>
       <c r="I753" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J753" s="16" t="str">
@@ -39131,7 +39087,7 @@
       <c r="G754" s="13"/>
       <c r="H754" s="13"/>
       <c r="I754" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J754" s="16" t="str">
@@ -39182,7 +39138,7 @@
       <c r="G755" s="13"/>
       <c r="H755" s="13"/>
       <c r="I755" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J755" s="16" t="str">
@@ -39233,7 +39189,7 @@
       <c r="G756" s="13"/>
       <c r="H756" s="13"/>
       <c r="I756" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J756" s="16" t="str">
@@ -39284,7 +39240,7 @@
       <c r="G757" s="13"/>
       <c r="H757" s="13"/>
       <c r="I757" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J757" s="16" t="str">
@@ -39335,7 +39291,7 @@
       <c r="G758" s="13"/>
       <c r="H758" s="13"/>
       <c r="I758" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J758" s="16" t="str">
@@ -39386,7 +39342,7 @@
       <c r="G759" s="13"/>
       <c r="H759" s="13"/>
       <c r="I759" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J759" s="16" t="str">
@@ -39437,7 +39393,7 @@
       <c r="G760" s="13"/>
       <c r="H760" s="13"/>
       <c r="I760" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J760" s="16" t="str">
@@ -39488,7 +39444,7 @@
       <c r="G761" s="13"/>
       <c r="H761" s="13"/>
       <c r="I761" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J761" s="16" t="str">
@@ -39539,7 +39495,7 @@
       <c r="G762" s="13"/>
       <c r="H762" s="13"/>
       <c r="I762" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J762" s="16" t="str">
@@ -39590,7 +39546,7 @@
       <c r="G763" s="13"/>
       <c r="H763" s="13"/>
       <c r="I763" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J763" s="16" t="str">
@@ -39641,7 +39597,7 @@
       <c r="G764" s="13"/>
       <c r="H764" s="13"/>
       <c r="I764" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J764" s="16" t="str">
@@ -39692,7 +39648,7 @@
       <c r="G765" s="13"/>
       <c r="H765" s="13"/>
       <c r="I765" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J765" s="16" t="str">
@@ -39743,7 +39699,7 @@
       <c r="G766" s="13"/>
       <c r="H766" s="13"/>
       <c r="I766" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J766" s="16" t="str">
@@ -39794,7 +39750,7 @@
       <c r="G767" s="13"/>
       <c r="H767" s="13"/>
       <c r="I767" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J767" s="16" t="str">
@@ -39845,7 +39801,7 @@
       <c r="G768" s="13"/>
       <c r="H768" s="13"/>
       <c r="I768" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J768" s="16" t="str">
@@ -39896,7 +39852,7 @@
       <c r="G769" s="13"/>
       <c r="H769" s="13"/>
       <c r="I769" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J769" s="16" t="str">
@@ -39947,7 +39903,7 @@
       <c r="G770" s="13"/>
       <c r="H770" s="13"/>
       <c r="I770" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J770" s="16" t="str">
@@ -39998,7 +39954,7 @@
       <c r="G771" s="13"/>
       <c r="H771" s="13"/>
       <c r="I771" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J771" s="16" t="str">
@@ -40049,7 +40005,7 @@
       <c r="G772" s="13"/>
       <c r="H772" s="13"/>
       <c r="I772" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J772" s="16" t="str">
@@ -40100,7 +40056,7 @@
       <c r="G773" s="13"/>
       <c r="H773" s="13"/>
       <c r="I773" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J773" s="16" t="str">
@@ -40151,7 +40107,7 @@
       <c r="G774" s="13"/>
       <c r="H774" s="13"/>
       <c r="I774" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J774" s="16" t="str">
@@ -40202,7 +40158,7 @@
       <c r="G775" s="13"/>
       <c r="H775" s="13"/>
       <c r="I775" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J775" s="16" t="str">
@@ -40253,7 +40209,7 @@
       <c r="G776" s="13"/>
       <c r="H776" s="13"/>
       <c r="I776" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J776" s="16" t="str">
@@ -40304,7 +40260,7 @@
       <c r="G777" s="13"/>
       <c r="H777" s="13"/>
       <c r="I777" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J777" s="16" t="str">
@@ -40355,7 +40311,7 @@
       <c r="G778" s="13"/>
       <c r="H778" s="13"/>
       <c r="I778" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J778" s="16" t="str">
@@ -40406,7 +40362,7 @@
       <c r="G779" s="13"/>
       <c r="H779" s="13"/>
       <c r="I779" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J779" s="16" t="str">
@@ -40457,7 +40413,7 @@
       <c r="G780" s="13"/>
       <c r="H780" s="13"/>
       <c r="I780" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J780" s="16" t="str">
@@ -40508,7 +40464,7 @@
       <c r="G781" s="13"/>
       <c r="H781" s="13"/>
       <c r="I781" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J781" s="16" t="str">
@@ -40559,7 +40515,7 @@
       <c r="G782" s="13"/>
       <c r="H782" s="13"/>
       <c r="I782" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J782" s="16" t="str">
@@ -40610,7 +40566,7 @@
       <c r="G783" s="13"/>
       <c r="H783" s="13"/>
       <c r="I783" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J783" s="16" t="str">
@@ -40661,7 +40617,7 @@
       <c r="G784" s="13"/>
       <c r="H784" s="13"/>
       <c r="I784" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J784" s="16" t="str">
@@ -40712,7 +40668,7 @@
       <c r="G785" s="13"/>
       <c r="H785" s="13"/>
       <c r="I785" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J785" s="16" t="str">
@@ -40763,7 +40719,7 @@
       <c r="G786" s="13"/>
       <c r="H786" s="13"/>
       <c r="I786" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J786" s="16" t="str">
@@ -40814,7 +40770,7 @@
       <c r="G787" s="13"/>
       <c r="H787" s="13"/>
       <c r="I787" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J787" s="16" t="str">
@@ -40865,7 +40821,7 @@
       <c r="G788" s="13"/>
       <c r="H788" s="13"/>
       <c r="I788" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J788" s="16" t="str">
@@ -40916,7 +40872,7 @@
       <c r="G789" s="13"/>
       <c r="H789" s="13"/>
       <c r="I789" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J789" s="16" t="str">
@@ -40967,7 +40923,7 @@
       <c r="G790" s="13"/>
       <c r="H790" s="13"/>
       <c r="I790" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J790" s="16" t="str">
@@ -41018,7 +40974,7 @@
       <c r="G791" s="13"/>
       <c r="H791" s="13"/>
       <c r="I791" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J791" s="16" t="str">
@@ -41069,7 +41025,7 @@
       <c r="G792" s="13"/>
       <c r="H792" s="13"/>
       <c r="I792" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J792" s="16" t="str">
@@ -41120,7 +41076,7 @@
       <c r="G793" s="13"/>
       <c r="H793" s="13"/>
       <c r="I793" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J793" s="16" t="str">
@@ -41171,7 +41127,7 @@
       <c r="G794" s="13"/>
       <c r="H794" s="13"/>
       <c r="I794" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J794" s="16" t="str">
@@ -41222,7 +41178,7 @@
       <c r="G795" s="13"/>
       <c r="H795" s="13"/>
       <c r="I795" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J795" s="16" t="str">
@@ -41273,7 +41229,7 @@
       <c r="G796" s="13"/>
       <c r="H796" s="13"/>
       <c r="I796" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J796" s="16" t="str">
@@ -41324,7 +41280,7 @@
       <c r="G797" s="13"/>
       <c r="H797" s="13"/>
       <c r="I797" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J797" s="16" t="str">
@@ -41375,7 +41331,7 @@
       <c r="G798" s="13"/>
       <c r="H798" s="13"/>
       <c r="I798" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J798" s="16" t="str">
@@ -41426,7 +41382,7 @@
       <c r="G799" s="13"/>
       <c r="H799" s="13"/>
       <c r="I799" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J799" s="16" t="str">
@@ -41477,7 +41433,7 @@
       <c r="G800" s="13"/>
       <c r="H800" s="13"/>
       <c r="I800" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J800" s="16" t="str">
@@ -41528,7 +41484,7 @@
       <c r="G801" s="13"/>
       <c r="H801" s="13"/>
       <c r="I801" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J801" s="16" t="str">
@@ -41579,7 +41535,7 @@
       <c r="G802" s="13"/>
       <c r="H802" s="13"/>
       <c r="I802" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J802" s="16" t="str">
@@ -41630,7 +41586,7 @@
       <c r="G803" s="13"/>
       <c r="H803" s="13"/>
       <c r="I803" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J803" s="16" t="str">
@@ -41681,7 +41637,7 @@
       <c r="G804" s="13"/>
       <c r="H804" s="13"/>
       <c r="I804" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J804" s="16" t="str">
@@ -41732,7 +41688,7 @@
       <c r="G805" s="13"/>
       <c r="H805" s="13"/>
       <c r="I805" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J805" s="16" t="str">
@@ -41783,7 +41739,7 @@
       <c r="G806" s="13"/>
       <c r="H806" s="13"/>
       <c r="I806" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J806" s="16" t="str">
@@ -41834,7 +41790,7 @@
       <c r="G807" s="13"/>
       <c r="H807" s="13"/>
       <c r="I807" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J807" s="16" t="str">
@@ -41885,7 +41841,7 @@
       <c r="G808" s="13"/>
       <c r="H808" s="13"/>
       <c r="I808" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J808" s="16" t="str">
@@ -41936,7 +41892,7 @@
       <c r="G809" s="13"/>
       <c r="H809" s="13"/>
       <c r="I809" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J809" s="16" t="str">
@@ -41987,7 +41943,7 @@
       <c r="G810" s="13"/>
       <c r="H810" s="13"/>
       <c r="I810" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J810" s="16" t="str">
@@ -42038,7 +41994,7 @@
       <c r="G811" s="13"/>
       <c r="H811" s="13"/>
       <c r="I811" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J811" s="16" t="str">
@@ -42089,7 +42045,7 @@
       <c r="G812" s="13"/>
       <c r="H812" s="13"/>
       <c r="I812" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J812" s="16" t="str">
@@ -42140,7 +42096,7 @@
       <c r="G813" s="13"/>
       <c r="H813" s="13"/>
       <c r="I813" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J813" s="16" t="str">
@@ -42191,7 +42147,7 @@
       <c r="G814" s="13"/>
       <c r="H814" s="13"/>
       <c r="I814" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J814" s="16" t="str">
@@ -42242,7 +42198,7 @@
       <c r="G815" s="13"/>
       <c r="H815" s="13"/>
       <c r="I815" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J815" s="16" t="str">
@@ -42293,7 +42249,7 @@
       <c r="G816" s="13"/>
       <c r="H816" s="13"/>
       <c r="I816" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J816" s="16" t="str">
@@ -42344,7 +42300,7 @@
       <c r="G817" s="13"/>
       <c r="H817" s="13"/>
       <c r="I817" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J817" s="16" t="str">
@@ -42395,7 +42351,7 @@
       <c r="G818" s="13"/>
       <c r="H818" s="13"/>
       <c r="I818" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J818" s="16" t="str">
@@ -42446,7 +42402,7 @@
       <c r="G819" s="13"/>
       <c r="H819" s="13"/>
       <c r="I819" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J819" s="16" t="str">
@@ -42497,7 +42453,7 @@
       <c r="G820" s="13"/>
       <c r="H820" s="13"/>
       <c r="I820" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J820" s="16" t="str">
@@ -42548,7 +42504,7 @@
       <c r="G821" s="13"/>
       <c r="H821" s="13"/>
       <c r="I821" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J821" s="16" t="str">
@@ -42599,7 +42555,7 @@
       <c r="G822" s="13"/>
       <c r="H822" s="13"/>
       <c r="I822" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J822" s="16" t="str">
@@ -42650,7 +42606,7 @@
       <c r="G823" s="13"/>
       <c r="H823" s="13"/>
       <c r="I823" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J823" s="16" t="str">
@@ -42701,7 +42657,7 @@
       <c r="G824" s="13"/>
       <c r="H824" s="13"/>
       <c r="I824" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J824" s="16" t="str">
@@ -42752,7 +42708,7 @@
       <c r="G825" s="13"/>
       <c r="H825" s="13"/>
       <c r="I825" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J825" s="16" t="str">
@@ -42803,7 +42759,7 @@
       <c r="G826" s="13"/>
       <c r="H826" s="13"/>
       <c r="I826" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J826" s="16" t="str">
@@ -42854,7 +42810,7 @@
       <c r="G827" s="13"/>
       <c r="H827" s="13"/>
       <c r="I827" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J827" s="16" t="str">
@@ -42905,7 +42861,7 @@
       <c r="G828" s="13"/>
       <c r="H828" s="13"/>
       <c r="I828" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J828" s="16" t="str">
@@ -42956,7 +42912,7 @@
       <c r="G829" s="13"/>
       <c r="H829" s="13"/>
       <c r="I829" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J829" s="16" t="str">
@@ -43007,7 +42963,7 @@
       <c r="G830" s="13"/>
       <c r="H830" s="13"/>
       <c r="I830" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J830" s="16" t="str">
@@ -43058,7 +43014,7 @@
       <c r="G831" s="13"/>
       <c r="H831" s="13"/>
       <c r="I831" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J831" s="16" t="str">
@@ -43109,7 +43065,7 @@
       <c r="G832" s="13"/>
       <c r="H832" s="13"/>
       <c r="I832" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J832" s="16" t="str">
@@ -43160,7 +43116,7 @@
       <c r="G833" s="13"/>
       <c r="H833" s="13"/>
       <c r="I833" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J833" s="16" t="str">
@@ -43211,7 +43167,7 @@
       <c r="G834" s="13"/>
       <c r="H834" s="13"/>
       <c r="I834" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J834" s="16" t="str">
@@ -43262,7 +43218,7 @@
       <c r="G835" s="13"/>
       <c r="H835" s="13"/>
       <c r="I835" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J835" s="16" t="str">
@@ -43313,7 +43269,7 @@
       <c r="G836" s="13"/>
       <c r="H836" s="13"/>
       <c r="I836" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J836" s="16" t="str">
@@ -43364,7 +43320,7 @@
       <c r="G837" s="13"/>
       <c r="H837" s="13"/>
       <c r="I837" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J837" s="16" t="str">
@@ -43415,7 +43371,7 @@
       <c r="G838" s="13"/>
       <c r="H838" s="13"/>
       <c r="I838" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J838" s="16" t="str">
@@ -43466,7 +43422,7 @@
       <c r="G839" s="13"/>
       <c r="H839" s="13"/>
       <c r="I839" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J839" s="16" t="str">
@@ -43517,7 +43473,7 @@
       <c r="G840" s="13"/>
       <c r="H840" s="13"/>
       <c r="I840" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J840" s="16" t="str">
@@ -43568,7 +43524,7 @@
       <c r="G841" s="13"/>
       <c r="H841" s="13"/>
       <c r="I841" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J841" s="16" t="str">
@@ -43619,7 +43575,7 @@
       <c r="G842" s="13"/>
       <c r="H842" s="13"/>
       <c r="I842" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J842" s="16" t="str">
@@ -43670,7 +43626,7 @@
       <c r="G843" s="13"/>
       <c r="H843" s="13"/>
       <c r="I843" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J843" s="16" t="str">
@@ -43721,7 +43677,7 @@
       <c r="G844" s="13"/>
       <c r="H844" s="13"/>
       <c r="I844" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J844" s="16" t="str">
@@ -43772,7 +43728,7 @@
       <c r="G845" s="13"/>
       <c r="H845" s="13"/>
       <c r="I845" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J845" s="16" t="str">
@@ -43823,7 +43779,7 @@
       <c r="G846" s="13"/>
       <c r="H846" s="13"/>
       <c r="I846" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J846" s="16" t="str">
@@ -43874,7 +43830,7 @@
       <c r="G847" s="13"/>
       <c r="H847" s="13"/>
       <c r="I847" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J847" s="16" t="str">
@@ -43925,7 +43881,7 @@
       <c r="G848" s="13"/>
       <c r="H848" s="13"/>
       <c r="I848" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J848" s="16" t="str">
@@ -43976,7 +43932,7 @@
       <c r="G849" s="13"/>
       <c r="H849" s="13"/>
       <c r="I849" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J849" s="16" t="str">
@@ -44027,7 +43983,7 @@
       <c r="G850" s="13"/>
       <c r="H850" s="13"/>
       <c r="I850" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J850" s="16" t="str">
@@ -44078,7 +44034,7 @@
       <c r="G851" s="13"/>
       <c r="H851" s="13"/>
       <c r="I851" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J851" s="16" t="str">
@@ -44129,7 +44085,7 @@
       <c r="G852" s="13"/>
       <c r="H852" s="13"/>
       <c r="I852" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J852" s="16" t="str">
@@ -44180,7 +44136,7 @@
       <c r="G853" s="13"/>
       <c r="H853" s="13"/>
       <c r="I853" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J853" s="16" t="str">
@@ -44231,7 +44187,7 @@
       <c r="G854" s="13"/>
       <c r="H854" s="13"/>
       <c r="I854" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J854" s="16" t="str">
@@ -44282,7 +44238,7 @@
       <c r="G855" s="13"/>
       <c r="H855" s="13"/>
       <c r="I855" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J855" s="16" t="str">
@@ -44333,7 +44289,7 @@
       <c r="G856" s="13"/>
       <c r="H856" s="13"/>
       <c r="I856" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J856" s="16" t="str">
@@ -44384,7 +44340,7 @@
       <c r="G857" s="13"/>
       <c r="H857" s="13"/>
       <c r="I857" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J857" s="16" t="str">
@@ -44435,7 +44391,7 @@
       <c r="G858" s="13"/>
       <c r="H858" s="13"/>
       <c r="I858" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J858" s="16" t="str">
@@ -44486,7 +44442,7 @@
       <c r="G859" s="13"/>
       <c r="H859" s="13"/>
       <c r="I859" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J859" s="16" t="str">
@@ -44537,7 +44493,7 @@
       <c r="G860" s="13"/>
       <c r="H860" s="13"/>
       <c r="I860" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J860" s="16" t="str">
@@ -44588,7 +44544,7 @@
       <c r="G861" s="13"/>
       <c r="H861" s="13"/>
       <c r="I861" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J861" s="16" t="str">
@@ -44639,7 +44595,7 @@
       <c r="G862" s="13"/>
       <c r="H862" s="13"/>
       <c r="I862" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J862" s="16" t="str">
@@ -44690,7 +44646,7 @@
       <c r="G863" s="13"/>
       <c r="H863" s="13"/>
       <c r="I863" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J863" s="16" t="str">
@@ -44741,7 +44697,7 @@
       <c r="G864" s="13"/>
       <c r="H864" s="13"/>
       <c r="I864" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J864" s="16" t="str">
@@ -44792,7 +44748,7 @@
       <c r="G865" s="13"/>
       <c r="H865" s="13"/>
       <c r="I865" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J865" s="16" t="str">
@@ -44843,7 +44799,7 @@
       <c r="G866" s="13"/>
       <c r="H866" s="13"/>
       <c r="I866" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J866" s="16" t="str">
@@ -44894,7 +44850,7 @@
       <c r="G867" s="13"/>
       <c r="H867" s="13"/>
       <c r="I867" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J867" s="16" t="str">
@@ -44945,7 +44901,7 @@
       <c r="G868" s="13"/>
       <c r="H868" s="13"/>
       <c r="I868" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J868" s="16" t="str">
@@ -44996,7 +44952,7 @@
       <c r="G869" s="13"/>
       <c r="H869" s="13"/>
       <c r="I869" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J869" s="16" t="str">
@@ -45047,7 +45003,7 @@
       <c r="G870" s="13"/>
       <c r="H870" s="13"/>
       <c r="I870" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J870" s="16" t="str">
@@ -45098,7 +45054,7 @@
       <c r="G871" s="13"/>
       <c r="H871" s="13"/>
       <c r="I871" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J871" s="16" t="str">
@@ -45149,7 +45105,7 @@
       <c r="G872" s="13"/>
       <c r="H872" s="13"/>
       <c r="I872" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J872" s="16" t="str">
@@ -45200,7 +45156,7 @@
       <c r="G873" s="13"/>
       <c r="H873" s="13"/>
       <c r="I873" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J873" s="16" t="str">
@@ -45251,7 +45207,7 @@
       <c r="G874" s="13"/>
       <c r="H874" s="13"/>
       <c r="I874" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J874" s="16" t="str">
@@ -45302,7 +45258,7 @@
       <c r="G875" s="13"/>
       <c r="H875" s="13"/>
       <c r="I875" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J875" s="16" t="str">
@@ -45353,7 +45309,7 @@
       <c r="G876" s="13"/>
       <c r="H876" s="13"/>
       <c r="I876" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J876" s="16" t="str">
@@ -45404,7 +45360,7 @@
       <c r="G877" s="13"/>
       <c r="H877" s="13"/>
       <c r="I877" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J877" s="16" t="str">
@@ -45455,7 +45411,7 @@
       <c r="G878" s="13"/>
       <c r="H878" s="13"/>
       <c r="I878" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J878" s="16" t="str">
@@ -45506,7 +45462,7 @@
       <c r="G879" s="13"/>
       <c r="H879" s="13"/>
       <c r="I879" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J879" s="16" t="str">
@@ -45557,7 +45513,7 @@
       <c r="G880" s="13"/>
       <c r="H880" s="13"/>
       <c r="I880" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J880" s="16" t="str">
@@ -45608,7 +45564,7 @@
       <c r="G881" s="13"/>
       <c r="H881" s="13"/>
       <c r="I881" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J881" s="16" t="str">
@@ -45659,7 +45615,7 @@
       <c r="G882" s="13"/>
       <c r="H882" s="13"/>
       <c r="I882" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J882" s="16" t="str">
@@ -45710,7 +45666,7 @@
       <c r="G883" s="13"/>
       <c r="H883" s="13"/>
       <c r="I883" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J883" s="16" t="str">
@@ -45761,7 +45717,7 @@
       <c r="G884" s="13"/>
       <c r="H884" s="13"/>
       <c r="I884" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J884" s="16" t="str">
@@ -45812,7 +45768,7 @@
       <c r="G885" s="13"/>
       <c r="H885" s="13"/>
       <c r="I885" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J885" s="16" t="str">
@@ -45863,7 +45819,7 @@
       <c r="G886" s="13"/>
       <c r="H886" s="13"/>
       <c r="I886" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J886" s="16" t="str">
@@ -45914,7 +45870,7 @@
       <c r="G887" s="13"/>
       <c r="H887" s="13"/>
       <c r="I887" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J887" s="16" t="str">
@@ -45965,7 +45921,7 @@
       <c r="G888" s="13"/>
       <c r="H888" s="13"/>
       <c r="I888" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J888" s="16" t="str">
@@ -46016,7 +45972,7 @@
       <c r="G889" s="13"/>
       <c r="H889" s="13"/>
       <c r="I889" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J889" s="16" t="str">
@@ -46067,7 +46023,7 @@
       <c r="G890" s="13"/>
       <c r="H890" s="13"/>
       <c r="I890" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J890" s="16" t="str">
@@ -46118,7 +46074,7 @@
       <c r="G891" s="13"/>
       <c r="H891" s="13"/>
       <c r="I891" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J891" s="16" t="str">
@@ -46169,7 +46125,7 @@
       <c r="G892" s="13"/>
       <c r="H892" s="13"/>
       <c r="I892" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J892" s="16" t="str">
@@ -46220,7 +46176,7 @@
       <c r="G893" s="13"/>
       <c r="H893" s="13"/>
       <c r="I893" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J893" s="16" t="str">
@@ -46271,7 +46227,7 @@
       <c r="G894" s="13"/>
       <c r="H894" s="13"/>
       <c r="I894" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J894" s="16" t="str">
@@ -46322,7 +46278,7 @@
       <c r="G895" s="13"/>
       <c r="H895" s="13"/>
       <c r="I895" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J895" s="16" t="str">
@@ -46373,7 +46329,7 @@
       <c r="G896" s="13"/>
       <c r="H896" s="13"/>
       <c r="I896" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J896" s="16" t="str">
@@ -46424,7 +46380,7 @@
       <c r="G897" s="13"/>
       <c r="H897" s="13"/>
       <c r="I897" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J897" s="16" t="str">
@@ -46475,7 +46431,7 @@
       <c r="G898" s="13"/>
       <c r="H898" s="13"/>
       <c r="I898" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J898" s="16" t="str">
@@ -46526,7 +46482,7 @@
       <c r="G899" s="13"/>
       <c r="H899" s="13"/>
       <c r="I899" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J899" s="16" t="str">
@@ -46577,7 +46533,7 @@
       <c r="G900" s="13"/>
       <c r="H900" s="13"/>
       <c r="I900" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J900" s="16" t="str">
@@ -46628,7 +46584,7 @@
       <c r="G901" s="13"/>
       <c r="H901" s="13"/>
       <c r="I901" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J901" s="16" t="str">
@@ -46679,7 +46635,7 @@
       <c r="G902" s="13"/>
       <c r="H902" s="13"/>
       <c r="I902" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J902" s="16" t="str">
@@ -46730,7 +46686,7 @@
       <c r="G903" s="13"/>
       <c r="H903" s="13"/>
       <c r="I903" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J903" s="16" t="str">
@@ -46781,7 +46737,7 @@
       <c r="G904" s="13"/>
       <c r="H904" s="13"/>
       <c r="I904" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J904" s="16" t="str">
@@ -46832,7 +46788,7 @@
       <c r="G905" s="13"/>
       <c r="H905" s="13"/>
       <c r="I905" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J905" s="16" t="str">
@@ -46883,7 +46839,7 @@
       <c r="G906" s="13"/>
       <c r="H906" s="13"/>
       <c r="I906" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J906" s="16" t="str">
@@ -46934,7 +46890,7 @@
       <c r="G907" s="13"/>
       <c r="H907" s="13"/>
       <c r="I907" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J907" s="16" t="str">
@@ -46985,7 +46941,7 @@
       <c r="G908" s="13"/>
       <c r="H908" s="13"/>
       <c r="I908" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J908" s="16" t="str">
@@ -47036,7 +46992,7 @@
       <c r="G909" s="13"/>
       <c r="H909" s="13"/>
       <c r="I909" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J909" s="16" t="str">
@@ -47087,7 +47043,7 @@
       <c r="G910" s="13"/>
       <c r="H910" s="13"/>
       <c r="I910" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J910" s="16" t="str">
@@ -47138,7 +47094,7 @@
       <c r="G911" s="13"/>
       <c r="H911" s="13"/>
       <c r="I911" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J911" s="16" t="str">
@@ -47189,7 +47145,7 @@
       <c r="G912" s="13"/>
       <c r="H912" s="13"/>
       <c r="I912" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J912" s="16" t="str">
@@ -47240,7 +47196,7 @@
       <c r="G913" s="13"/>
       <c r="H913" s="13"/>
       <c r="I913" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J913" s="16" t="str">
@@ -47291,7 +47247,7 @@
       <c r="G914" s="13"/>
       <c r="H914" s="13"/>
       <c r="I914" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J914" s="16" t="str">
@@ -47342,7 +47298,7 @@
       <c r="G915" s="13"/>
       <c r="H915" s="13"/>
       <c r="I915" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J915" s="16" t="str">
@@ -47393,7 +47349,7 @@
       <c r="G916" s="13"/>
       <c r="H916" s="13"/>
       <c r="I916" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J916" s="16" t="str">
@@ -47444,7 +47400,7 @@
       <c r="G917" s="13"/>
       <c r="H917" s="13"/>
       <c r="I917" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J917" s="16" t="str">
@@ -47495,7 +47451,7 @@
       <c r="G918" s="13"/>
       <c r="H918" s="13"/>
       <c r="I918" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J918" s="16" t="str">
@@ -47546,7 +47502,7 @@
       <c r="G919" s="13"/>
       <c r="H919" s="13"/>
       <c r="I919" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J919" s="16" t="str">
@@ -47597,7 +47553,7 @@
       <c r="G920" s="13"/>
       <c r="H920" s="13"/>
       <c r="I920" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J920" s="16" t="str">
@@ -47648,7 +47604,7 @@
       <c r="G921" s="13"/>
       <c r="H921" s="13"/>
       <c r="I921" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J921" s="16" t="str">
@@ -47699,7 +47655,7 @@
       <c r="G922" s="13"/>
       <c r="H922" s="13"/>
       <c r="I922" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J922" s="16" t="str">
@@ -47750,7 +47706,7 @@
       <c r="G923" s="13"/>
       <c r="H923" s="13"/>
       <c r="I923" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J923" s="16" t="str">
@@ -47801,7 +47757,7 @@
       <c r="G924" s="13"/>
       <c r="H924" s="13"/>
       <c r="I924" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J924" s="16" t="str">
@@ -47852,7 +47808,7 @@
       <c r="G925" s="13"/>
       <c r="H925" s="13"/>
       <c r="I925" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J925" s="16" t="str">
@@ -47903,7 +47859,7 @@
       <c r="G926" s="13"/>
       <c r="H926" s="13"/>
       <c r="I926" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J926" s="16" t="str">
@@ -47954,7 +47910,7 @@
       <c r="G927" s="13"/>
       <c r="H927" s="13"/>
       <c r="I927" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J927" s="16" t="str">
@@ -48005,7 +47961,7 @@
       <c r="G928" s="13"/>
       <c r="H928" s="13"/>
       <c r="I928" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J928" s="16" t="str">
@@ -48056,7 +48012,7 @@
       <c r="G929" s="13"/>
       <c r="H929" s="13"/>
       <c r="I929" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J929" s="16" t="str">
@@ -48107,7 +48063,7 @@
       <c r="G930" s="13"/>
       <c r="H930" s="13"/>
       <c r="I930" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J930" s="16" t="str">
@@ -48158,7 +48114,7 @@
       <c r="G931" s="13"/>
       <c r="H931" s="13"/>
       <c r="I931" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J931" s="16" t="str">
@@ -48209,7 +48165,7 @@
       <c r="G932" s="13"/>
       <c r="H932" s="13"/>
       <c r="I932" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J932" s="16" t="str">
@@ -48260,7 +48216,7 @@
       <c r="G933" s="13"/>
       <c r="H933" s="13"/>
       <c r="I933" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J933" s="16" t="str">
@@ -48311,7 +48267,7 @@
       <c r="G934" s="13"/>
       <c r="H934" s="13"/>
       <c r="I934" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J934" s="16" t="str">
@@ -48362,7 +48318,7 @@
       <c r="G935" s="13"/>
       <c r="H935" s="13"/>
       <c r="I935" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J935" s="16" t="str">
@@ -48413,7 +48369,7 @@
       <c r="G936" s="13"/>
       <c r="H936" s="13"/>
       <c r="I936" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J936" s="16" t="str">
@@ -48464,7 +48420,7 @@
       <c r="G937" s="13"/>
       <c r="H937" s="13"/>
       <c r="I937" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J937" s="16" t="str">
@@ -48515,7 +48471,7 @@
       <c r="G938" s="13"/>
       <c r="H938" s="13"/>
       <c r="I938" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J938" s="16" t="str">
@@ -48566,7 +48522,7 @@
       <c r="G939" s="13"/>
       <c r="H939" s="13"/>
       <c r="I939" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J939" s="16" t="str">
@@ -48617,7 +48573,7 @@
       <c r="G940" s="13"/>
       <c r="H940" s="13"/>
       <c r="I940" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J940" s="16" t="str">
@@ -48668,7 +48624,7 @@
       <c r="G941" s="13"/>
       <c r="H941" s="13"/>
       <c r="I941" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J941" s="16" t="str">
@@ -48719,7 +48675,7 @@
       <c r="G942" s="13"/>
       <c r="H942" s="13"/>
       <c r="I942" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J942" s="16" t="str">
@@ -48770,7 +48726,7 @@
       <c r="G943" s="13"/>
       <c r="H943" s="13"/>
       <c r="I943" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J943" s="16" t="str">
@@ -48821,7 +48777,7 @@
       <c r="G944" s="13"/>
       <c r="H944" s="13"/>
       <c r="I944" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J944" s="16" t="str">
@@ -48872,7 +48828,7 @@
       <c r="G945" s="13"/>
       <c r="H945" s="13"/>
       <c r="I945" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J945" s="16" t="str">
@@ -48923,7 +48879,7 @@
       <c r="G946" s="13"/>
       <c r="H946" s="13"/>
       <c r="I946" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J946" s="16" t="str">
@@ -48974,7 +48930,7 @@
       <c r="G947" s="13"/>
       <c r="H947" s="13"/>
       <c r="I947" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J947" s="16" t="str">
@@ -49025,7 +48981,7 @@
       <c r="G948" s="13"/>
       <c r="H948" s="13"/>
       <c r="I948" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J948" s="16" t="str">
@@ -49076,7 +49032,7 @@
       <c r="G949" s="13"/>
       <c r="H949" s="13"/>
       <c r="I949" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J949" s="16" t="str">
@@ -49127,7 +49083,7 @@
       <c r="G950" s="13"/>
       <c r="H950" s="13"/>
       <c r="I950" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J950" s="16" t="str">
@@ -49178,7 +49134,7 @@
       <c r="G951" s="13"/>
       <c r="H951" s="13"/>
       <c r="I951" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J951" s="16" t="str">
@@ -49229,7 +49185,7 @@
       <c r="G952" s="13"/>
       <c r="H952" s="13"/>
       <c r="I952" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J952" s="16" t="str">
@@ -49280,7 +49236,7 @@
       <c r="G953" s="13"/>
       <c r="H953" s="13"/>
       <c r="I953" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J953" s="16" t="str">
@@ -49331,7 +49287,7 @@
       <c r="G954" s="13"/>
       <c r="H954" s="13"/>
       <c r="I954" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J954" s="16" t="str">
@@ -49382,7 +49338,7 @@
       <c r="G955" s="13"/>
       <c r="H955" s="13"/>
       <c r="I955" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J955" s="16" t="str">
@@ -49433,7 +49389,7 @@
       <c r="G956" s="13"/>
       <c r="H956" s="13"/>
       <c r="I956" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J956" s="16" t="str">
@@ -49484,7 +49440,7 @@
       <c r="G957" s="13"/>
       <c r="H957" s="13"/>
       <c r="I957" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J957" s="16" t="str">
@@ -49535,7 +49491,7 @@
       <c r="G958" s="13"/>
       <c r="H958" s="13"/>
       <c r="I958" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J958" s="16" t="str">
@@ -49586,7 +49542,7 @@
       <c r="G959" s="13"/>
       <c r="H959" s="13"/>
       <c r="I959" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J959" s="16" t="str">
@@ -49637,7 +49593,7 @@
       <c r="G960" s="13"/>
       <c r="H960" s="13"/>
       <c r="I960" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J960" s="16" t="str">
@@ -49688,7 +49644,7 @@
       <c r="G961" s="13"/>
       <c r="H961" s="13"/>
       <c r="I961" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J961" s="16" t="str">
@@ -49739,7 +49695,7 @@
       <c r="G962" s="13"/>
       <c r="H962" s="13"/>
       <c r="I962" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J962" s="16" t="str">
@@ -49790,7 +49746,7 @@
       <c r="G963" s="13"/>
       <c r="H963" s="13"/>
       <c r="I963" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J963" s="16" t="str">
@@ -49841,7 +49797,7 @@
       <c r="G964" s="13"/>
       <c r="H964" s="13"/>
       <c r="I964" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J964" s="16" t="str">
@@ -49892,7 +49848,7 @@
       <c r="G965" s="13"/>
       <c r="H965" s="13"/>
       <c r="I965" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J965" s="16" t="str">
@@ -49943,7 +49899,7 @@
       <c r="G966" s="13"/>
       <c r="H966" s="13"/>
       <c r="I966" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J966" s="16" t="str">
@@ -49994,7 +49950,7 @@
       <c r="G967" s="13"/>
       <c r="H967" s="13"/>
       <c r="I967" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J967" s="16" t="str">
@@ -50045,7 +50001,7 @@
       <c r="G968" s="13"/>
       <c r="H968" s="13"/>
       <c r="I968" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J968" s="16" t="str">
@@ -50096,7 +50052,7 @@
       <c r="G969" s="13"/>
       <c r="H969" s="13"/>
       <c r="I969" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J969" s="16" t="str">
@@ -50147,7 +50103,7 @@
       <c r="G970" s="13"/>
       <c r="H970" s="13"/>
       <c r="I970" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J970" s="16" t="str">
@@ -50198,7 +50154,7 @@
       <c r="G971" s="13"/>
       <c r="H971" s="13"/>
       <c r="I971" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J971" s="16" t="str">
@@ -50249,7 +50205,7 @@
       <c r="G972" s="13"/>
       <c r="H972" s="13"/>
       <c r="I972" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J972" s="16" t="str">
@@ -50300,7 +50256,7 @@
       <c r="G973" s="13"/>
       <c r="H973" s="13"/>
       <c r="I973" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J973" s="16" t="str">
@@ -50351,7 +50307,7 @@
       <c r="G974" s="13"/>
       <c r="H974" s="13"/>
       <c r="I974" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J974" s="16" t="str">
@@ -50402,7 +50358,7 @@
       <c r="G975" s="13"/>
       <c r="H975" s="13"/>
       <c r="I975" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J975" s="16" t="str">
@@ -50453,7 +50409,7 @@
       <c r="G976" s="13"/>
       <c r="H976" s="13"/>
       <c r="I976" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J976" s="16" t="str">
@@ -50504,7 +50460,7 @@
       <c r="G977" s="13"/>
       <c r="H977" s="13"/>
       <c r="I977" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J977" s="16" t="str">
@@ -50555,7 +50511,7 @@
       <c r="G978" s="13"/>
       <c r="H978" s="13"/>
       <c r="I978" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J978" s="16" t="str">
@@ -50606,7 +50562,7 @@
       <c r="G979" s="13"/>
       <c r="H979" s="13"/>
       <c r="I979" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J979" s="16" t="str">
@@ -50657,7 +50613,7 @@
       <c r="G980" s="13"/>
       <c r="H980" s="13"/>
       <c r="I980" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J980" s="16" t="str">
@@ -50708,7 +50664,7 @@
       <c r="G981" s="13"/>
       <c r="H981" s="13"/>
       <c r="I981" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J981" s="16" t="str">
@@ -50759,7 +50715,7 @@
       <c r="G982" s="13"/>
       <c r="H982" s="13"/>
       <c r="I982" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J982" s="16" t="str">
@@ -50810,7 +50766,7 @@
       <c r="G983" s="13"/>
       <c r="H983" s="13"/>
       <c r="I983" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J983" s="16" t="str">
@@ -50861,7 +50817,7 @@
       <c r="G984" s="13"/>
       <c r="H984" s="13"/>
       <c r="I984" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J984" s="16" t="str">
@@ -50912,7 +50868,7 @@
       <c r="G985" s="13"/>
       <c r="H985" s="13"/>
       <c r="I985" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J985" s="16" t="str">
@@ -50963,7 +50919,7 @@
       <c r="G986" s="13"/>
       <c r="H986" s="13"/>
       <c r="I986" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J986" s="16" t="str">
@@ -51014,7 +50970,7 @@
       <c r="G987" s="13"/>
       <c r="H987" s="13"/>
       <c r="I987" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J987" s="16" t="str">
@@ -51065,7 +51021,7 @@
       <c r="G988" s="13"/>
       <c r="H988" s="13"/>
       <c r="I988" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J988" s="16" t="str">
@@ -51116,7 +51072,7 @@
       <c r="G989" s="13"/>
       <c r="H989" s="13"/>
       <c r="I989" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J989" s="16" t="str">
@@ -51167,7 +51123,7 @@
       <c r="G990" s="13"/>
       <c r="H990" s="13"/>
       <c r="I990" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J990" s="16" t="str">
@@ -51218,7 +51174,7 @@
       <c r="G991" s="13"/>
       <c r="H991" s="13"/>
       <c r="I991" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J991" s="16" t="str">
@@ -51269,7 +51225,7 @@
       <c r="G992" s="13"/>
       <c r="H992" s="13"/>
       <c r="I992" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J992" s="16" t="str">
@@ -51320,7 +51276,7 @@
       <c r="G993" s="13"/>
       <c r="H993" s="13"/>
       <c r="I993" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J993" s="16" t="str">
@@ -51371,7 +51327,7 @@
       <c r="G994" s="13"/>
       <c r="H994" s="13"/>
       <c r="I994" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J994" s="16" t="str">
@@ -51422,7 +51378,7 @@
       <c r="G995" s="13"/>
       <c r="H995" s="13"/>
       <c r="I995" s="15" t="e">
-        <f t="shared" si="365"/>
+        <f t="shared" si="363"/>
         <v>#REF!</v>
       </c>
       <c r="J995" s="16" t="str">
@@ -51463,169 +51419,118 @@
         <v/>
       </c>
     </row>
-    <row r="996" spans="1:19" ht="12.75">
-      <c r="A996" s="9"/>
-      <c r="B996" s="10"/>
-      <c r="C996" s="11"/>
-      <c r="D996" s="12"/>
-      <c r="E996" s="13"/>
-      <c r="F996" s="13"/>
-      <c r="G996" s="13"/>
-      <c r="H996" s="13"/>
-      <c r="I996" s="15" t="e">
-        <f t="shared" si="365"/>
-        <v>#REF!</v>
-      </c>
-      <c r="J996" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K996" s="17" t="e">
-        <f t="shared" ref="K996:L996" si="1994">IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L996" s="16" t="e">
-        <f t="shared" si="1994"/>
-        <v>#REF!</v>
-      </c>
-      <c r="M996" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N996" s="16" t="e">
-        <f t="shared" ref="N996:O996" si="1995">IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O996" s="16" t="e">
-        <f t="shared" si="1995"/>
-        <v>#REF!</v>
-      </c>
-      <c r="P996" s="18" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>[Theme, Epic, or Dept]</v>
-      </c>
-      <c r="Q996" s="18"/>
-      <c r="R996" s="19" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="S996" s="20" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:C2 C7:C996">
+  <conditionalFormatting sqref="C1:C2 C7:C995">
     <cfRule type="containsText" dxfId="45" priority="24" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH(("1"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C2 C7:C996">
+  <conditionalFormatting sqref="C1:C2 C7:C995">
     <cfRule type="containsText" dxfId="44" priority="25" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH(("2"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C2 C7:C996">
+  <conditionalFormatting sqref="C1:C2 C7:C995">
     <cfRule type="containsText" dxfId="43" priority="26" operator="containsText" text="3">
       <formula>NOT(ISERROR(SEARCH(("3"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C2 C7:C996">
+  <conditionalFormatting sqref="C1:C2 C7:C995">
     <cfRule type="containsText" dxfId="42" priority="27" operator="containsText" text="4">
       <formula>NOT(ISERROR(SEARCH(("4"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2 D7:D996">
+  <conditionalFormatting sqref="D2 D7:D995">
     <cfRule type="cellIs" dxfId="41" priority="28" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2 D7:D996">
+  <conditionalFormatting sqref="D2 D7:D995">
     <cfRule type="cellIs" dxfId="40" priority="29" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2 D7:D996">
+  <conditionalFormatting sqref="D2 D7:D995">
     <cfRule type="cellIs" dxfId="39" priority="30" operator="equal">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2 D7:D996">
+  <conditionalFormatting sqref="D2 D7:D995">
     <cfRule type="cellIs" dxfId="38" priority="31" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2 D7:D996">
+  <conditionalFormatting sqref="D2 D7:D995">
     <cfRule type="cellIs" dxfId="37" priority="32" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2 D7:D996">
+  <conditionalFormatting sqref="D2 D7:D995">
     <cfRule type="cellIs" dxfId="36" priority="33" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2 D7:D996">
+  <conditionalFormatting sqref="D2 D7:D995">
     <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2 D7:D996">
+  <conditionalFormatting sqref="D2 D7:D995">
     <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2 D7:D996">
+  <conditionalFormatting sqref="D2 D7:D995">
     <cfRule type="cellIs" dxfId="33" priority="36" operator="equal">
       <formula>13</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2 D7:D996">
+  <conditionalFormatting sqref="D2 D7:D995">
     <cfRule type="cellIs" dxfId="32" priority="37" operator="equal">
       <formula>21</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2 D7:D996">
+  <conditionalFormatting sqref="D2 D7:D995">
     <cfRule type="cellIs" dxfId="31" priority="38" operator="equal">
       <formula>34</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2 D7:D996">
+  <conditionalFormatting sqref="D2 D7:D995">
     <cfRule type="cellIs" dxfId="30" priority="39" operator="equal">
       <formula>55</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2 D7:D996">
+  <conditionalFormatting sqref="D2 D7:D995">
     <cfRule type="cellIs" dxfId="29" priority="40" operator="equal">
       <formula>89</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2 D7:D996">
+  <conditionalFormatting sqref="D2 D7:D995">
     <cfRule type="cellIs" dxfId="28" priority="41" operator="equal">
       <formula>"XSM"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2 D7:D996">
+  <conditionalFormatting sqref="D2 D7:D995">
     <cfRule type="cellIs" dxfId="27" priority="42" operator="equal">
       <formula>"SM"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2 D7:D996">
+  <conditionalFormatting sqref="D2 D7:D995">
     <cfRule type="cellIs" dxfId="26" priority="43" operator="equal">
       <formula>"MD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2 D7:D996">
+  <conditionalFormatting sqref="D2 D7:D995">
     <cfRule type="cellIs" dxfId="25" priority="44" operator="equal">
       <formula>"LG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2 D7:D996">
+  <conditionalFormatting sqref="D2 D7:D995">
     <cfRule type="cellIs" dxfId="24" priority="45" operator="equal">
       <formula>"XLG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2 D7:D996">
+  <conditionalFormatting sqref="D2 D7:D995">
     <cfRule type="cellIs" dxfId="23" priority="46" operator="equal">
       <formula>"XXLG"</formula>
     </cfRule>
@@ -51746,10 +51651,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="C2:C996">
+    <dataValidation type="list" allowBlank="1" sqref="C2:C995">
       <formula1>"1 High,2 Med,3 Med,4 Low"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D2:D996">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D995">
       <formula1>"XSM,SM,MD,LG,XLG,XXLG,0,0.5,1,2,3,5,8,13,21,34,55,89,?"</formula1>
     </dataValidation>
   </dataValidations>
